--- a/Results 2025 MASTER.xlsx
+++ b/Results 2025 MASTER.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sd44o365-my.sharepoint.com/personal/19247_sd44_ca/Documents/nsssaa-mtb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="741" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA173E67-7C3E-47DD-A166-2F8EFE739D0B}"/>
+  <xr:revisionPtr revIDLastSave="745" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BE2E0B-65CF-4C7C-B57F-338F9F1DB728}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-21600" windowWidth="19200" windowHeight="21020" firstSheet="5" activeTab="5" xr2:uid="{EF65BA04-60F3-4F2B-BC8E-976066A335E4}"/>
+    <workbookView xWindow="240" yWindow="-21540" windowWidth="23040" windowHeight="20400" tabRatio="669" activeTab="5" xr2:uid="{EF65BA04-60F3-4F2B-BC8E-976066A335E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER ROSTERS" sheetId="15" r:id="rId1"/>
     <sheet name="PTS" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="TeamHelper" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="TeamHelper" sheetId="5" r:id="rId3"/>
     <sheet name="Lists" sheetId="8" state="hidden" r:id="rId4"/>
     <sheet name="Individual Results" sheetId="2" r:id="rId5"/>
     <sheet name="TeamPoints" sheetId="11" r:id="rId6"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -17486,7 +17486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6EE6F0-5209-4548-B73C-37B54C96BA68}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -40074,10 +40076,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C807E2-9D8B-4820-9B4A-3D4F64F10F5D}">
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -40211,7 +40213,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="129">
-        <f>SUM(C2:H2)</f>
+        <f t="shared" ref="I2:I33" si="0">SUM(C2:H2)</f>
         <v>225</v>
       </c>
     </row>
@@ -40309,7 +40311,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="129">
-        <f>SUM(C3:H3)</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
     </row>
@@ -40407,7 +40409,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="129">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
     </row>
@@ -40505,7 +40507,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="129">
-        <f>SUM(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
@@ -40603,7 +40605,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="129">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -40701,7 +40703,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="129">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -40799,7 +40801,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="129">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -40897,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="129">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -40995,7 +40997,7 @@
         <v/>
       </c>
       <c r="I10" s="129">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41093,7 +41095,7 @@
         <v/>
       </c>
       <c r="I11" s="129">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41191,7 +41193,7 @@
         <v/>
       </c>
       <c r="I12" s="129">
-        <f>SUM(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41289,7 +41291,7 @@
         <v/>
       </c>
       <c r="I13" s="129">
-        <f>SUM(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41387,7 +41389,7 @@
         <v/>
       </c>
       <c r="I14" s="129">
-        <f>SUM(C14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41485,7 +41487,7 @@
         <v/>
       </c>
       <c r="I15" s="129">
-        <f>SUM(C15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41583,7 +41585,7 @@
         <v/>
       </c>
       <c r="I16" s="129">
-        <f>SUM(C16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41681,7 +41683,7 @@
         <v/>
       </c>
       <c r="I17" s="129">
-        <f>SUM(C17:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41779,7 +41781,7 @@
         <v/>
       </c>
       <c r="I18" s="129">
-        <f>SUM(C18:H18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41877,7 +41879,7 @@
         <v/>
       </c>
       <c r="I19" s="129">
-        <f>SUM(C19:H19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -41975,7 +41977,7 @@
         <v/>
       </c>
       <c r="I20" s="129">
-        <f>SUM(C20:H20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42073,7 +42075,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="130">
-        <f>SUM(C21:H21)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
@@ -42171,7 +42173,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="130">
-        <f>SUM(C22:H22)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
@@ -42269,7 +42271,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="130">
-        <f>SUM(C23:H23)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
@@ -42367,7 +42369,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="130">
-        <f>SUM(C24:H24)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
@@ -42465,7 +42467,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="130">
-        <f>SUM(C25:H25)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -42563,7 +42565,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="130">
-        <f>SUM(C26:H26)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -42661,7 +42663,7 @@
         <v/>
       </c>
       <c r="I27" s="130">
-        <f>SUM(C27:H27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42759,7 +42761,7 @@
         <v/>
       </c>
       <c r="I28" s="130">
-        <f>SUM(C28:H28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42857,7 +42859,7 @@
         <v/>
       </c>
       <c r="I29" s="130">
-        <f>SUM(C29:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -42955,7 +42957,7 @@
         <v/>
       </c>
       <c r="I30" s="130">
-        <f>SUM(C30:H30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43053,7 +43055,7 @@
         <v/>
       </c>
       <c r="I31" s="130">
-        <f>SUM(C31:H31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43151,7 +43153,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="131">
-        <f>SUM(C32:H32)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -43249,7 +43251,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="131">
-        <f>SUM(C33:H33)</f>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
     </row>
@@ -43347,7 +43349,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="131">
-        <f>SUM(C34:H34)</f>
+        <f t="shared" ref="I34:I65" si="1">SUM(C34:H34)</f>
         <v>158</v>
       </c>
     </row>
@@ -43445,7 +43447,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="131">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
     </row>
@@ -43543,7 +43545,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="131">
-        <f>SUM(C36:H36)</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
@@ -43641,7 +43643,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="131">
-        <f>SUM(C37:H37)</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -43739,7 +43741,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="131">
-        <f>SUM(C38:H38)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -43837,7 +43839,7 @@
         <v/>
       </c>
       <c r="I39" s="131">
-        <f>SUM(C39:H39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -43935,7 +43937,7 @@
         <v/>
       </c>
       <c r="I40" s="131">
-        <f>SUM(C40:H40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44033,7 +44035,7 @@
         <v/>
       </c>
       <c r="I41" s="131">
-        <f>SUM(C41:H41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44131,7 +44133,7 @@
         <v/>
       </c>
       <c r="I42" s="131">
-        <f>SUM(C42:H42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44229,7 +44231,7 @@
         <v/>
       </c>
       <c r="I43" s="131">
-        <f>SUM(C43:H43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44327,7 +44329,7 @@
         <v/>
       </c>
       <c r="I44" s="131">
-        <f>SUM(C44:H44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44425,7 +44427,7 @@
         <v/>
       </c>
       <c r="I45" s="131">
-        <f>SUM(C45:H45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44523,7 +44525,7 @@
         <v/>
       </c>
       <c r="I46" s="131">
-        <f>SUM(C46:H46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44621,7 +44623,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="131">
-        <f>SUM(C47:H47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44719,7 +44721,7 @@
         <v/>
       </c>
       <c r="I48" s="131">
-        <f>SUM(C48:H48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44817,7 +44819,7 @@
         <v/>
       </c>
       <c r="I49" s="131">
-        <f>SUM(C49:H49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -44915,7 +44917,7 @@
         <v/>
       </c>
       <c r="I50" s="131">
-        <f>SUM(C50:H50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45013,7 +45015,7 @@
         <v/>
       </c>
       <c r="I51" s="131">
-        <f>SUM(C51:H51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45111,7 +45113,7 @@
         <v/>
       </c>
       <c r="I52" s="131">
-        <f>SUM(C52:H52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45209,7 +45211,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="132">
-        <f>SUM(C53:H53)</f>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
     </row>
@@ -45307,7 +45309,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="132">
-        <f>SUM(C54:H54)</f>
+        <f t="shared" si="1"/>
         <v>235</v>
       </c>
     </row>
@@ -45405,7 +45407,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="132">
-        <f>SUM(C55:H55)</f>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
     </row>
@@ -45503,7 +45505,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="132">
-        <f>SUM(C56:H56)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
@@ -45601,7 +45603,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="132">
-        <f>SUM(C57:H57)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -45699,7 +45701,7 @@
         <v/>
       </c>
       <c r="I58" s="132">
-        <f>SUM(C58:H58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45797,7 +45799,7 @@
         <v/>
       </c>
       <c r="I59" s="132">
-        <f>SUM(C59:H59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45895,7 +45897,7 @@
         <v/>
       </c>
       <c r="I60" s="132">
-        <f>SUM(C60:H60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -45993,7 +45995,7 @@
         <v/>
       </c>
       <c r="I61" s="132">
-        <f>SUM(C61:H61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -46091,7 +46093,7 @@
         <v/>
       </c>
       <c r="I62" s="132">
-        <f>SUM(C62:H62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -46189,7 +46191,7 @@
         <v/>
       </c>
       <c r="I63" s="132">
-        <f>SUM(C63:H63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -46287,7 +46289,7 @@
         <v/>
       </c>
       <c r="I64" s="132">
-        <f>SUM(C64:H64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -46385,7 +46387,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="133">
-        <f>SUM(C65:H65)</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
@@ -46483,7 +46485,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="133">
-        <f>SUM(C66:H66)</f>
+        <f t="shared" ref="I66:I96" si="2">SUM(C66:H66)</f>
         <v>181</v>
       </c>
     </row>
@@ -46581,7 +46583,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="133">
-        <f>SUM(C67:H67)</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
     </row>
@@ -46679,7 +46681,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="133">
-        <f>SUM(C68:H68)</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
@@ -46777,7 +46779,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="133">
-        <f>SUM(C69:H69)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -46875,7 +46877,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="133">
-        <f>SUM(C70:H70)</f>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
     </row>
@@ -46973,7 +46975,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="133">
-        <f>SUM(C71:H71)</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
@@ -47071,7 +47073,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="133">
-        <f>SUM(C72:H72)</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
@@ -47169,7 +47171,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="133">
-        <f>SUM(C73:H73)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
@@ -47267,7 +47269,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="133">
-        <f>SUM(C74:H74)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
     </row>
@@ -47365,7 +47367,7 @@
         <v/>
       </c>
       <c r="I75" s="133">
-        <f>SUM(C75:H75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47463,7 +47465,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="133">
-        <f>SUM(C76:H76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47561,7 +47563,7 @@
         <v/>
       </c>
       <c r="I77" s="133">
-        <f>SUM(C77:H77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47659,7 +47661,7 @@
         <v/>
       </c>
       <c r="I78" s="133">
-        <f>SUM(C78:H78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47757,7 +47759,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="133">
-        <f>SUM(C79:H79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47855,7 +47857,7 @@
         <v/>
       </c>
       <c r="I80" s="133">
-        <f>SUM(C80:H80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -47953,7 +47955,7 @@
         <v/>
       </c>
       <c r="I81" s="133">
-        <f>SUM(C81:H81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -48051,7 +48053,7 @@
         <v/>
       </c>
       <c r="I82" s="133">
-        <f>SUM(C82:H82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -48149,7 +48151,7 @@
         <v/>
       </c>
       <c r="I83" s="133">
-        <f>SUM(C83:H83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -48247,7 +48249,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="134">
-        <f>SUM(C84:H84)</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
@@ -48345,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="134">
-        <f>SUM(C85:H85)</f>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
@@ -48443,7 +48445,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="134">
-        <f>SUM(C86:H86)</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
@@ -48541,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="134">
-        <f>SUM(C87:H87)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -48639,7 +48641,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="134">
-        <f>SUM(C88:H88)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
     </row>
@@ -48737,7 +48739,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="134">
-        <f>SUM(C89:H89)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -48835,18 +48837,18 @@
         <v>0</v>
       </c>
       <c r="I90" s="134">
-        <f>SUM(C90:H90)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="134" t="str">
-        <f>TeamHelper!I97</f>
+        <f>TeamHelper!I82</f>
         <v>Sr Boys</v>
       </c>
       <c r="B91" s="134" t="str">
-        <f>TeamHelper!H97</f>
-        <v>Whistler</v>
+        <f>TeamHelper!H82</f>
+        <v>Burnaby Mtn</v>
       </c>
       <c r="C91" s="134" cm="1">
         <f t="array" ref="C91">IFERROR(
@@ -48860,7 +48862,7 @@
   )),
   ""
 )</f>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D91" s="134" cm="1">
         <f t="array" ref="D91">IFERROR(
@@ -48933,18 +48935,18 @@
         <v>0</v>
       </c>
       <c r="I91" s="134">
-        <f>SUM(C91:H91)</f>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="134" t="str">
-        <f>TeamHelper!I82</f>
+        <f>TeamHelper!I95</f>
         <v>Sr Boys</v>
       </c>
       <c r="B92" s="134" t="str">
-        <f>TeamHelper!H82</f>
-        <v>Burnaby Mtn</v>
+        <f>TeamHelper!H95</f>
+        <v>Sutherland</v>
       </c>
       <c r="C92" s="134" cm="1">
         <f t="array" ref="C92">IFERROR(
@@ -48958,7 +48960,7 @@
   )),
   ""
 )</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D92" s="134" cm="1">
         <f t="array" ref="D92">IFERROR(
@@ -49031,18 +49033,18 @@
         <v>0</v>
       </c>
       <c r="I92" s="134">
-        <f>SUM(C92:H92)</f>
-        <v>59</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="134" t="str">
-        <f>TeamHelper!I95</f>
+        <f>TeamHelper!I89</f>
         <v>Sr Boys</v>
       </c>
       <c r="B93" s="134" t="str">
-        <f>TeamHelper!H95</f>
-        <v>Sutherland</v>
+        <f>TeamHelper!H89</f>
+        <v>Mulgrave</v>
       </c>
       <c r="C93" s="134" cm="1">
         <f t="array" ref="C93">IFERROR(
@@ -49056,7 +49058,7 @@
   )),
   ""
 )</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="134" cm="1">
         <f t="array" ref="D93">IFERROR(
@@ -49129,18 +49131,18 @@
         <v>0</v>
       </c>
       <c r="I93" s="134">
-        <f>SUM(C93:H93)</f>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="134" t="str">
-        <f>TeamHelper!I89</f>
+        <f>TeamHelper!I81</f>
         <v>Sr Boys</v>
       </c>
       <c r="B94" s="134" t="str">
-        <f>TeamHelper!H89</f>
-        <v>Mulgrave</v>
+        <f>TeamHelper!H81</f>
+        <v>Brockton</v>
       </c>
       <c r="C94" s="134" cm="1">
         <f t="array" ref="C94">IFERROR(
@@ -49154,7 +49156,7 @@
   )),
   ""
 )</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D94" s="134" cm="1">
         <f t="array" ref="D94">IFERROR(
@@ -49227,20 +49229,20 @@
         <v>0</v>
       </c>
       <c r="I94" s="134">
-        <f>SUM(C94:H94)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="134" t="str">
-        <f>TeamHelper!I81</f>
+        <f>TeamHelper!I84</f>
         <v>Sr Boys</v>
       </c>
       <c r="B95" s="134" t="str">
-        <f>TeamHelper!H81</f>
-        <v>Brockton</v>
-      </c>
-      <c r="C95" s="134" cm="1">
+        <f>TeamHelper!H84</f>
+        <v>Coast Mtn</v>
+      </c>
+      <c r="C95" s="134" t="str" cm="1">
         <f t="array" ref="C95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49252,9 +49254,9 @@
   )),
   ""
 )</f>
-        <v>18</v>
-      </c>
-      <c r="D95" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="D95" s="134" t="str" cm="1">
         <f t="array" ref="D95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49266,9 +49268,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="E95" s="134" t="str" cm="1">
         <f t="array" ref="E95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49280,9 +49282,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="F95" s="134" t="str" cm="1">
         <f t="array" ref="F95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49294,9 +49296,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="G95" s="134" t="str" cm="1">
         <f t="array" ref="G95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49308,9 +49310,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="H95" s="134" t="str" cm="1">
         <f t="array" ref="H95">IFERROR(
   SUM(LARGE(
     IF(
@@ -49322,21 +49324,21 @@
   )),
   ""
 )</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="I95" s="134">
-        <f>SUM(C95:H95)</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="134" t="str">
-        <f>TeamHelper!I84</f>
+        <f>TeamHelper!I85</f>
         <v>Sr Boys</v>
       </c>
       <c r="B96" s="134" t="str">
-        <f>TeamHelper!H84</f>
-        <v>Coast Mtn</v>
+        <f>TeamHelper!H85</f>
+        <v>Elphinstone</v>
       </c>
       <c r="C96" s="134" t="str" cm="1">
         <f t="array" ref="C96">IFERROR(
@@ -49423,20 +49425,20 @@
         <v/>
       </c>
       <c r="I96" s="134">
-        <f>SUM(C96:H96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="134" t="str">
-        <f>TeamHelper!I85</f>
+        <f>TeamHelper!I86</f>
         <v>Sr Boys</v>
       </c>
       <c r="B97" s="134" t="str">
-        <f>TeamHelper!H85</f>
-        <v>Elphinstone</v>
-      </c>
-      <c r="C97" s="134" t="str" cm="1">
+        <f>TeamHelper!H86</f>
+        <v>GW Graham</v>
+      </c>
+      <c r="C97" s="134" cm="1">
         <f t="array" ref="C97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49448,9 +49450,9 @@
   )),
   ""
 )</f>
-        <v/>
-      </c>
-      <c r="D97" s="134" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="134" cm="1">
         <f t="array" ref="D97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49462,9 +49464,9 @@
   )),
   ""
 )</f>
-        <v/>
-      </c>
-      <c r="E97" s="134" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="134" cm="1">
         <f t="array" ref="E97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49476,9 +49478,9 @@
   )),
   ""
 )</f>
-        <v/>
-      </c>
-      <c r="F97" s="134" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="134" cm="1">
         <f t="array" ref="F97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49490,9 +49492,9 @@
   )),
   ""
 )</f>
-        <v/>
-      </c>
-      <c r="G97" s="134" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="134" cm="1">
         <f t="array" ref="G97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49504,9 +49506,9 @@
   )),
   ""
 )</f>
-        <v/>
-      </c>
-      <c r="H97" s="134" t="str" cm="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="134" cm="1">
         <f t="array" ref="H97">IFERROR(
   SUM(LARGE(
     IF(
@@ -49518,23 +49520,23 @@
   )),
   ""
 )</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I97" s="134">
-        <f>SUM(C97:H97)</f>
+        <f t="shared" ref="I97:I101" si="3">SUM(C97:H97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="134" t="str">
-        <f>TeamHelper!I86</f>
+        <f>TeamHelper!I91</f>
         <v>Sr Boys</v>
       </c>
       <c r="B98" s="134" t="str">
-        <f>TeamHelper!H86</f>
-        <v>GW Graham</v>
-      </c>
-      <c r="C98" s="134" cm="1">
+        <f>TeamHelper!H91</f>
+        <v>Rockridge</v>
+      </c>
+      <c r="C98" s="134" t="str" cm="1">
         <f t="array" ref="C98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49546,9 +49548,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="D98" s="134" t="str" cm="1">
         <f t="array" ref="D98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49560,9 +49562,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="E98" s="134" t="str" cm="1">
         <f t="array" ref="E98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49574,9 +49576,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="F98" s="134" t="str" cm="1">
         <f t="array" ref="F98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49588,9 +49590,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="G98" s="134" t="str" cm="1">
         <f t="array" ref="G98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49602,9 +49604,9 @@
   )),
   ""
 )</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="134" cm="1">
+        <v/>
+      </c>
+      <c r="H98" s="134" t="str" cm="1">
         <f t="array" ref="H98">IFERROR(
   SUM(LARGE(
     IF(
@@ -49616,21 +49618,21 @@
   )),
   ""
 )</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="I98" s="134">
-        <f>SUM(C98:H98)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="134" t="str">
-        <f>TeamHelper!I91</f>
+        <f>TeamHelper!I93</f>
         <v>Sr Boys</v>
       </c>
       <c r="B99" s="134" t="str">
-        <f>TeamHelper!H91</f>
-        <v>Rockridge</v>
+        <f>TeamHelper!H93</f>
+        <v>St. Georges</v>
       </c>
       <c r="C99" s="134" t="str" cm="1">
         <f t="array" ref="C99">IFERROR(
@@ -49717,18 +49719,18 @@
         <v/>
       </c>
       <c r="I99" s="134">
-        <f>SUM(C99:H99)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="134" t="str">
-        <f>TeamHelper!I93</f>
+        <f>TeamHelper!I94</f>
         <v>Sr Boys</v>
       </c>
       <c r="B100" s="134" t="str">
-        <f>TeamHelper!H93</f>
-        <v>St. Georges</v>
+        <f>TeamHelper!H94</f>
+        <v>STA</v>
       </c>
       <c r="C100" s="134" t="str" cm="1">
         <f t="array" ref="C100">IFERROR(
@@ -49815,18 +49817,18 @@
         <v/>
       </c>
       <c r="I100" s="134">
-        <f>SUM(C100:H100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="134" t="str">
-        <f>TeamHelper!I94</f>
+        <f>TeamHelper!I96</f>
         <v>Sr Boys</v>
       </c>
       <c r="B101" s="134" t="str">
-        <f>TeamHelper!H94</f>
-        <v>STA</v>
+        <f>TeamHelper!H96</f>
+        <v>West Van</v>
       </c>
       <c r="C101" s="134" t="str" cm="1">
         <f t="array" ref="C101">IFERROR(
@@ -49913,210 +49915,14 @@
         <v/>
       </c>
       <c r="I101" s="134">
-        <f>SUM(C101:H101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="134" t="str">
-        <f>TeamHelper!I96</f>
-        <v>Sr Boys</v>
-      </c>
-      <c r="B102" s="134" t="str">
-        <f>TeamHelper!H96</f>
-        <v>West Van</v>
-      </c>
-      <c r="C102" s="134" t="str" cm="1">
-        <f t="array" ref="C102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$G$2:$G$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="D102" s="134" t="str" cm="1">
-        <f t="array" ref="D102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$I$2:$I$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="E102" s="134" t="str" cm="1">
-        <f t="array" ref="E102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$K$2:$K$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="F102" s="134" t="str" cm="1">
-        <f t="array" ref="F102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$M$2:$M$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="G102" s="134" t="str" cm="1">
-        <f t="array" ref="G102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$O$2:$O$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="H102" s="134" t="str" cm="1">
-        <f t="array" ref="H102">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A102) *
-      ('Individual Results'!$C$2:$C$411=$B102),
-      VALUE('Individual Results'!$Q$2:$Q$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="I102" s="134">
-        <f>SUM(C102:H102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" s="134" t="str">
-        <f>TeamHelper!I96</f>
-        <v>Sr Boys</v>
-      </c>
-      <c r="B103" s="134" t="str">
-        <f>TeamHelper!H96</f>
-        <v>West Van</v>
-      </c>
-      <c r="C103" s="134" t="str" cm="1">
-        <f t="array" ref="C103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$G$2:$G$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="D103" s="134" t="str" cm="1">
-        <f t="array" ref="D103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$I$2:$I$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="E103" s="134" t="str" cm="1">
-        <f t="array" ref="E103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$K$2:$K$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="F103" s="134" t="str" cm="1">
-        <f t="array" ref="F103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$M$2:$M$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="G103" s="134" t="str" cm="1">
-        <f t="array" ref="G103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$O$2:$O$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="H103" s="134" t="str" cm="1">
-        <f t="array" ref="H103">IFERROR(
-  SUM(LARGE(
-    IF(
-      ('Individual Results'!$D$2:$D$411=$A103) *
-      ('Individual Results'!$C$2:$C$411=$B103),
-      VALUE('Individual Results'!$Q$2:$Q$411)
-    ),
-    {1,2,3}
-  )),
-  ""
-)</f>
-        <v/>
-      </c>
-      <c r="I103" s="134">
-        <f>SUM(C103:H103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I103">
-    <sortCondition ref="A2:A103"/>
-    <sortCondition descending="1" ref="I2:I103"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
+    <sortCondition ref="A2:A101"/>
+    <sortCondition descending="1" ref="I2:I101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50177,7 +49983,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="str" cm="1">
-        <f t="array" ref="A4:I22">_xlfn._xlws.FILTER(TeamPoints!A2:I108, TeamPoints!A2:A108 = B1)</f>
+        <f t="array" ref="A4:I22">_xlfn._xlws.FILTER(TeamPoints!A2:I106, TeamPoints!A2:A106 = B1)</f>
         <v>Juv Boys</v>
       </c>
       <c r="B4" s="19" t="str">

--- a/Results 2025 MASTER.xlsx
+++ b/Results 2025 MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sd44o365-my.sharepoint.com/personal/19247_sd44_ca/Documents/nsssaa-mtb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1252" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDBE01BE-E3C5-4906-B534-2992F796CA87}"/>
+  <xr:revisionPtr revIDLastSave="1255" documentId="8_{959BACE5-4009-4EA9-89AA-0ADE5BBDFC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC937F7-8771-4F4C-ADA4-C51C942CD9DC}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-21260" windowWidth="16780" windowHeight="20480" tabRatio="669" activeTab="5" xr2:uid="{EF65BA04-60F3-4F2B-BC8E-976066A335E4}"/>
+    <workbookView xWindow="720" yWindow="-21260" windowWidth="16780" windowHeight="20480" tabRatio="669" activeTab="4" xr2:uid="{EF65BA04-60F3-4F2B-BC8E-976066A335E4}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER ROSTERS" sheetId="15" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="498">
   <si>
     <t>Student Name</t>
   </si>
@@ -2007,7 +2007,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2363,9 +2363,6 @@
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -21448,8 +21445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB262EB-1364-459B-9218-C412C7918AB0}">
   <dimension ref="A1:U391"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21827,12 +21824,12 @@
         <f>IFERROR(VALUE(VLOOKUP(F7, PTS!$A$2:$B$63, 2, FALSE)), "")</f>
         <v>42</v>
       </c>
-      <c r="H7" s="45" t="s">
-        <v>497</v>
+      <c r="H7" s="45">
+        <v>23</v>
       </c>
       <c r="I7" s="8">
         <f>IFERROR(VALUE(VLOOKUP(H7, PTS!$A$2:$B$63, 2, FALSE)), "")</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -21844,16 +21841,16 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="9">
         <f>SUM(G7,I7,K7,M7,O7,Q7)</f>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9" cm="1">
         <f t="array" ref="T7">SUM(LARGE(CHOOSE({1,2,3,4,5,6}, G7, I7, K7, M7, O7, Q7), _xlfn.SEQUENCE(MIN(5, COUNTA(G7, I7, K7, M7, O7, Q7)))))</f>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="U7" s="9">
         <f>1+COUNTIFS(B:B,B7,R:R,"&gt;"&amp;R7)</f>
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -21961,7 +21958,7 @@
       </c>
       <c r="U9" s="9">
         <f>1+COUNTIFS(B:B,B9,R:R,"&gt;"&amp;R9)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -22123,7 +22120,7 @@
       </c>
       <c r="U12" s="9">
         <f>1+COUNTIFS(B:B,B12,R:R,"&gt;"&amp;R12)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -22447,7 +22444,7 @@
       </c>
       <c r="U18" s="9">
         <f>1+COUNTIFS(B:B,B18,R:R,"&gt;"&amp;R18)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -22609,7 +22606,7 @@
       </c>
       <c r="U21" s="9">
         <f>1+COUNTIFS(B:B,B21,R:R,"&gt;"&amp;R21)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -22933,7 +22930,7 @@
       </c>
       <c r="U27" s="9">
         <f>1+COUNTIFS(B:B,B27,R:R,"&gt;"&amp;R27)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -23041,7 +23038,7 @@
       </c>
       <c r="U29" s="9">
         <f>1+COUNTIFS(B:B,B29,R:R,"&gt;"&amp;R29)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -23365,7 +23362,7 @@
       </c>
       <c r="U35" s="9">
         <f>1+COUNTIFS(B:B,B35,R:R,"&gt;"&amp;R35)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -23419,7 +23416,7 @@
       </c>
       <c r="U36" s="9">
         <f>1+COUNTIFS(B:B,B36,R:R,"&gt;"&amp;R36)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -23959,7 +23956,7 @@
       </c>
       <c r="U46" s="9">
         <f>1+COUNTIFS(B:B,B46,R:R,"&gt;"&amp;R46)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24175,7 +24172,7 @@
       </c>
       <c r="U50" s="9">
         <f>1+COUNTIFS(B:B,B50,R:R,"&gt;"&amp;R50)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24283,7 +24280,7 @@
       </c>
       <c r="U52" s="9">
         <f>1+COUNTIFS(B:B,B52,R:R,"&gt;"&amp;R52)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24445,7 +24442,7 @@
       </c>
       <c r="U55" s="9">
         <f>1+COUNTIFS(B:B,B55,R:R,"&gt;"&amp;R55)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24553,7 +24550,7 @@
       </c>
       <c r="U57" s="9">
         <f>1+COUNTIFS(B:B,B57,R:R,"&gt;"&amp;R57)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24877,7 +24874,7 @@
       </c>
       <c r="U63" s="9">
         <f>1+COUNTIFS(B:B,B63,R:R,"&gt;"&amp;R63)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24931,7 +24928,7 @@
       </c>
       <c r="U64" s="9">
         <f>1+COUNTIFS(B:B,B64,R:R,"&gt;"&amp;R64)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24985,7 +24982,7 @@
       </c>
       <c r="U65" s="9">
         <f>1+COUNTIFS(B:B,B65,R:R,"&gt;"&amp;R65)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25039,7 +25036,7 @@
       </c>
       <c r="U66" s="9">
         <f>1+COUNTIFS(B:B,B66,R:R,"&gt;"&amp;R66)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25093,7 +25090,7 @@
       </c>
       <c r="U67" s="9">
         <f>1+COUNTIFS(B:B,B67,R:R,"&gt;"&amp;R67)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25147,7 +25144,7 @@
       </c>
       <c r="U68" s="9">
         <f>1+COUNTIFS(B:B,B68,R:R,"&gt;"&amp;R68)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25309,7 +25306,7 @@
       </c>
       <c r="U71" s="9">
         <f>1+COUNTIFS(B:B,B71,R:R,"&gt;"&amp;R71)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -42536,45 +42533,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C807E2-9D8B-4820-9B4A-3D4F64F10F5D}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="134" customWidth="1"/>
-    <col min="2" max="2" width="16" style="134" customWidth="1"/>
-    <col min="3" max="11" width="8.88671875" style="134" customWidth="1"/>
-    <col min="12" max="20" width="8.88671875" style="135"/>
-    <col min="21" max="16384" width="8.88671875" style="134"/>
+    <col min="1" max="1" width="14.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="11" width="8.88671875" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="133" t="s">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -42696,11 +42692,11 @@
         <v/>
       </c>
       <c r="I2" s="128">
-        <f>SUM(C2:H2)</f>
+        <f t="shared" ref="I2:I33" si="0">SUM(C2:H2)</f>
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="128" t="str">
         <f>TeamHelper!I10</f>
         <v>Bant Boys</v>
@@ -42818,7 +42814,7 @@
         <v/>
       </c>
       <c r="I3" s="128">
-        <f>SUM(C3:H3)</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
     </row>
@@ -42940,7 +42936,7 @@
         <v/>
       </c>
       <c r="I4" s="128">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>363</v>
       </c>
     </row>
@@ -43062,7 +43058,7 @@
         <v/>
       </c>
       <c r="I5" s="128">
-        <f>SUM(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -43184,7 +43180,7 @@
         <v/>
       </c>
       <c r="I6" s="128">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
     </row>
@@ -43306,7 +43302,7 @@
         <v/>
       </c>
       <c r="I7" s="128">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
     </row>
@@ -43428,7 +43424,7 @@
         <v/>
       </c>
       <c r="I8" s="128">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43550,7 +43546,7 @@
         <v/>
       </c>
       <c r="I9" s="128">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43672,7 +43668,7 @@
         <v/>
       </c>
       <c r="I10" s="128">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43794,7 +43790,7 @@
         <v/>
       </c>
       <c r="I11" s="128">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -43916,7 +43912,7 @@
         <v/>
       </c>
       <c r="I12" s="128">
-        <f>SUM(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44038,7 +44034,7 @@
         <v/>
       </c>
       <c r="I13" s="128">
-        <f>SUM(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44160,7 +44156,7 @@
         <v/>
       </c>
       <c r="I14" s="128">
-        <f>SUM(C14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44282,7 +44278,7 @@
         <v/>
       </c>
       <c r="I15" s="128">
-        <f>SUM(C15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44404,7 +44400,7 @@
         <v/>
       </c>
       <c r="I16" s="128">
-        <f>SUM(C16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44526,7 +44522,7 @@
         <v/>
       </c>
       <c r="I17" s="128">
-        <f>SUM(C17:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44648,7 +44644,7 @@
         <v/>
       </c>
       <c r="I18" s="128">
-        <f>SUM(C18:H18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44770,7 +44766,7 @@
         <v/>
       </c>
       <c r="I19" s="128">
-        <f>SUM(C19:H19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -44892,7 +44888,7 @@
         <v/>
       </c>
       <c r="I20" s="128">
-        <f>SUM(C20:H20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -45014,7 +45010,7 @@
         <v/>
       </c>
       <c r="I21" s="129">
-        <f>SUM(C21:H21)</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
     </row>
@@ -45136,7 +45132,7 @@
         <v/>
       </c>
       <c r="I22" s="129">
-        <f>SUM(C22:H22)</f>
+        <f t="shared" si="0"/>
         <v>460</v>
       </c>
     </row>
@@ -45258,7 +45254,7 @@
         <v/>
       </c>
       <c r="I23" s="129">
-        <f>SUM(C23:H23)</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
     </row>
@@ -45380,7 +45376,7 @@
         <v/>
       </c>
       <c r="I24" s="129">
-        <f>SUM(C24:H24)</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
@@ -45502,7 +45498,7 @@
         <v/>
       </c>
       <c r="I25" s="129">
-        <f>SUM(C25:H25)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
@@ -45624,7 +45620,7 @@
         <v/>
       </c>
       <c r="I26" s="129">
-        <f>SUM(C26:H26)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
     </row>
@@ -45746,7 +45742,7 @@
         <v/>
       </c>
       <c r="I27" s="129">
-        <f>SUM(C27:H27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -45868,7 +45864,7 @@
         <v/>
       </c>
       <c r="I28" s="129">
-        <f>SUM(C28:H28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -45990,7 +45986,7 @@
         <v/>
       </c>
       <c r="I29" s="129">
-        <f>SUM(C29:H29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -46112,7 +46108,7 @@
         <v/>
       </c>
       <c r="I30" s="129">
-        <f>SUM(C30:H30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -46234,7 +46230,7 @@
         <v/>
       </c>
       <c r="I31" s="129">
-        <f>SUM(C31:H31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -46356,7 +46352,7 @@
         <v/>
       </c>
       <c r="I32" s="130">
-        <f>SUM(C32:H32)</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -46478,7 +46474,7 @@
         <v/>
       </c>
       <c r="I33" s="130">
-        <f>SUM(C33:H33)</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
@@ -46600,7 +46596,7 @@
         <v/>
       </c>
       <c r="I34" s="130">
-        <f>SUM(C34:H34)</f>
+        <f t="shared" ref="I34:I65" si="1">SUM(C34:H34)</f>
         <v>368</v>
       </c>
     </row>
@@ -46722,7 +46718,7 @@
         <v/>
       </c>
       <c r="I35" s="130">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="1"/>
         <v>303</v>
       </c>
     </row>
@@ -46844,7 +46840,7 @@
         <v/>
       </c>
       <c r="I36" s="130">
-        <f>SUM(C36:H36)</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -46966,7 +46962,7 @@
         <v/>
       </c>
       <c r="I37" s="130">
-        <f>SUM(C37:H37)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -47088,7 +47084,7 @@
         <v/>
       </c>
       <c r="I38" s="130">
-        <f>SUM(C38:H38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47210,7 +47206,7 @@
         <v/>
       </c>
       <c r="I39" s="130">
-        <f>SUM(C39:H39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47332,7 +47328,7 @@
         <v/>
       </c>
       <c r="I40" s="130">
-        <f>SUM(C40:H40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47454,7 +47450,7 @@
         <v/>
       </c>
       <c r="I41" s="130">
-        <f>SUM(C41:H41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47576,7 +47572,7 @@
         <v/>
       </c>
       <c r="I42" s="130">
-        <f>SUM(C42:H42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47698,7 +47694,7 @@
         <v/>
       </c>
       <c r="I43" s="130">
-        <f>SUM(C43:H43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47820,7 +47816,7 @@
         <v/>
       </c>
       <c r="I44" s="130">
-        <f>SUM(C44:H44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47942,7 +47938,7 @@
         <v/>
       </c>
       <c r="I45" s="130">
-        <f>SUM(C45:H45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48064,7 +48060,7 @@
         <v/>
       </c>
       <c r="I46" s="130">
-        <f>SUM(C46:H46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48186,7 +48182,7 @@
         <v/>
       </c>
       <c r="I47" s="130">
-        <f>SUM(C47:H47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48308,7 +48304,7 @@
         <v/>
       </c>
       <c r="I48" s="130">
-        <f>SUM(C48:H48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48430,7 +48426,7 @@
         <v/>
       </c>
       <c r="I49" s="130">
-        <f>SUM(C49:H49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48552,7 +48548,7 @@
         <v/>
       </c>
       <c r="I50" s="130">
-        <f>SUM(C50:H50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48674,7 +48670,7 @@
         <v/>
       </c>
       <c r="I51" s="130">
-        <f>SUM(C51:H51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48796,7 +48792,7 @@
         <v/>
       </c>
       <c r="I52" s="130">
-        <f>SUM(C52:H52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -48918,7 +48914,7 @@
         <v/>
       </c>
       <c r="I53" s="131">
-        <f>SUM(C53:H53)</f>
+        <f t="shared" si="1"/>
         <v>515</v>
       </c>
     </row>
@@ -49040,7 +49036,7 @@
         <v/>
       </c>
       <c r="I54" s="131">
-        <f>SUM(C54:H54)</f>
+        <f t="shared" si="1"/>
         <v>485</v>
       </c>
     </row>
@@ -49162,7 +49158,7 @@
         <v/>
       </c>
       <c r="I55" s="131">
-        <f>SUM(C55:H55)</f>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
     </row>
@@ -49284,7 +49280,7 @@
         <v/>
       </c>
       <c r="I56" s="131">
-        <f>SUM(C56:H56)</f>
+        <f t="shared" si="1"/>
         <v>235</v>
       </c>
     </row>
@@ -49406,7 +49402,7 @@
         <v/>
       </c>
       <c r="I57" s="131">
-        <f>SUM(C57:H57)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -49528,7 +49524,7 @@
         <v/>
       </c>
       <c r="I58" s="131">
-        <f>SUM(C58:H58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49650,7 +49646,7 @@
         <v/>
       </c>
       <c r="I59" s="131">
-        <f>SUM(C59:H59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49772,7 +49768,7 @@
         <v/>
       </c>
       <c r="I60" s="131">
-        <f>SUM(C60:H60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49894,7 +49890,7 @@
         <v/>
       </c>
       <c r="I61" s="131">
-        <f>SUM(C61:H61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -50016,7 +50012,7 @@
         <v/>
       </c>
       <c r="I62" s="131">
-        <f>SUM(C62:H62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -50138,7 +50134,7 @@
         <v/>
       </c>
       <c r="I63" s="132">
-        <f>SUM(C63:H63)</f>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
@@ -50260,7 +50256,7 @@
         <v/>
       </c>
       <c r="I64" s="132">
-        <f>SUM(C64:H64)</f>
+        <f t="shared" si="1"/>
         <v>369</v>
       </c>
     </row>
@@ -50382,7 +50378,7 @@
         <v/>
       </c>
       <c r="I65" s="132">
-        <f>SUM(C65:H65)</f>
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
     </row>
@@ -50504,7 +50500,7 @@
         <v/>
       </c>
       <c r="I66" s="132">
-        <f>SUM(C66:H66)</f>
+        <f t="shared" ref="I66:I97" si="2">SUM(C66:H66)</f>
         <v>272</v>
       </c>
     </row>
@@ -50626,7 +50622,7 @@
         <v/>
       </c>
       <c r="I67" s="132">
-        <f>SUM(C67:H67)</f>
+        <f t="shared" si="2"/>
         <v>271</v>
       </c>
     </row>
@@ -50748,7 +50744,7 @@
         <v/>
       </c>
       <c r="I68" s="132">
-        <f>SUM(C68:H68)</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
@@ -50870,7 +50866,7 @@
         <v/>
       </c>
       <c r="I69" s="132">
-        <f>SUM(C69:H69)</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
@@ -50992,7 +50988,7 @@
         <v/>
       </c>
       <c r="I70" s="132">
-        <f>SUM(C70:H70)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
@@ -51114,7 +51110,7 @@
         <v/>
       </c>
       <c r="I71" s="132">
-        <f>SUM(C71:H71)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
@@ -51236,7 +51232,7 @@
         <v/>
       </c>
       <c r="I72" s="132">
-        <f>SUM(C72:H72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51358,7 +51354,7 @@
         <v/>
       </c>
       <c r="I73" s="132">
-        <f>SUM(C73:H73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51480,7 +51476,7 @@
         <v/>
       </c>
       <c r="I74" s="132">
-        <f>SUM(C74:H74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51602,7 +51598,7 @@
         <v/>
       </c>
       <c r="I75" s="132">
-        <f>SUM(C75:H75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51724,7 +51720,7 @@
         <v/>
       </c>
       <c r="I76" s="132">
-        <f>SUM(C76:H76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51846,7 +51842,7 @@
         <v/>
       </c>
       <c r="I77" s="132">
-        <f>SUM(C77:H77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51968,7 +51964,7 @@
         <v/>
       </c>
       <c r="I78" s="132">
-        <f>SUM(C78:H78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -52090,7 +52086,7 @@
         <v/>
       </c>
       <c r="I79" s="132">
-        <f>SUM(C79:H79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -52212,7 +52208,7 @@
         <v/>
       </c>
       <c r="I80" s="132">
-        <f>SUM(C80:H80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -52334,20 +52330,20 @@
         <v/>
       </c>
       <c r="I81" s="132">
-        <f>SUM(C81:H81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="136" t="str">
+      <c r="A82" s="133" t="str">
         <f>TeamHelper!I88</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B82" s="136" t="str">
+      <c r="B82" s="133" t="str">
         <f>TeamHelper!H88</f>
         <v>Howe Sound</v>
       </c>
-      <c r="C82" s="136" cm="1">
+      <c r="C82" s="133" cm="1">
         <f t="array" ref="C82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52365,7 +52361,7 @@
 )</f>
         <v>216</v>
       </c>
-      <c r="D82" s="136" cm="1">
+      <c r="D82" s="133" cm="1">
         <f t="array" ref="D82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52383,7 +52379,7 @@
 )</f>
         <v>265</v>
       </c>
-      <c r="E82" s="136" t="str" cm="1">
+      <c r="E82" s="133" t="str" cm="1">
         <f t="array" ref="E82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52401,7 +52397,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F82" s="136" t="str" cm="1">
+      <c r="F82" s="133" t="str" cm="1">
         <f t="array" ref="F82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52419,7 +52415,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G82" s="136" t="str" cm="1">
+      <c r="G82" s="133" t="str" cm="1">
         <f t="array" ref="G82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52437,7 +52433,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H82" s="136" t="str" cm="1">
+      <c r="H82" s="133" t="str" cm="1">
         <f t="array" ref="H82">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A82,
            'Individual Results'!$C$2:$C$413, $B82,
@@ -52455,21 +52451,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I82" s="136">
-        <f>SUM(C82:H82)</f>
+      <c r="I82" s="133">
+        <f t="shared" si="2"/>
         <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="136" t="str">
+      <c r="A83" s="133" t="str">
         <f>TeamHelper!I90</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B83" s="136" t="str">
+      <c r="B83" s="133" t="str">
         <f>TeamHelper!H90</f>
         <v>Pemberton</v>
       </c>
-      <c r="C83" s="136" cm="1">
+      <c r="C83" s="133" cm="1">
         <f t="array" ref="C83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52487,7 +52483,7 @@
 )</f>
         <v>240</v>
       </c>
-      <c r="D83" s="136" cm="1">
+      <c r="D83" s="133" cm="1">
         <f t="array" ref="D83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52505,7 +52501,7 @@
 )</f>
         <v>175</v>
       </c>
-      <c r="E83" s="136" t="str" cm="1">
+      <c r="E83" s="133" t="str" cm="1">
         <f t="array" ref="E83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52523,7 +52519,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F83" s="136" t="str" cm="1">
+      <c r="F83" s="133" t="str" cm="1">
         <f t="array" ref="F83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52541,7 +52537,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G83" s="136" t="str" cm="1">
+      <c r="G83" s="133" t="str" cm="1">
         <f t="array" ref="G83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52559,7 +52555,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H83" s="136" t="str" cm="1">
+      <c r="H83" s="133" t="str" cm="1">
         <f t="array" ref="H83">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A83,
            'Individual Results'!$C$2:$C$413, $B83,
@@ -52577,21 +52573,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I83" s="136">
-        <f>SUM(C83:H83)</f>
+      <c r="I83" s="133">
+        <f t="shared" si="2"/>
         <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="136" t="str">
+      <c r="A84" s="133" t="str">
         <f>TeamHelper!I87</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B84" s="136" t="str">
+      <c r="B84" s="133" t="str">
         <f>TeamHelper!H87</f>
         <v>Handsworth</v>
       </c>
-      <c r="C84" s="136" cm="1">
+      <c r="C84" s="133" cm="1">
         <f t="array" ref="C84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52609,7 +52605,7 @@
 )</f>
         <v>189</v>
       </c>
-      <c r="D84" s="136" cm="1">
+      <c r="D84" s="133" cm="1">
         <f t="array" ref="D84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52627,7 +52623,7 @@
 )</f>
         <v>162</v>
       </c>
-      <c r="E84" s="136" t="str" cm="1">
+      <c r="E84" s="133" t="str" cm="1">
         <f t="array" ref="E84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52645,7 +52641,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F84" s="136" t="str" cm="1">
+      <c r="F84" s="133" t="str" cm="1">
         <f t="array" ref="F84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52663,7 +52659,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G84" s="136" t="str" cm="1">
+      <c r="G84" s="133" t="str" cm="1">
         <f t="array" ref="G84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52681,7 +52677,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H84" s="136" t="str" cm="1">
+      <c r="H84" s="133" t="str" cm="1">
         <f t="array" ref="H84">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A84,
            'Individual Results'!$C$2:$C$413, $B84,
@@ -52699,21 +52695,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I84" s="136">
-        <f>SUM(C84:H84)</f>
+      <c r="I84" s="133">
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="136" t="str">
+      <c r="A85" s="133" t="str">
         <f>TeamHelper!I83</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B85" s="136" t="str">
+      <c r="B85" s="133" t="str">
         <f>TeamHelper!H83</f>
         <v>Carson</v>
       </c>
-      <c r="C85" s="136" cm="1">
+      <c r="C85" s="133" cm="1">
         <f t="array" ref="C85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52731,7 +52727,7 @@
 )</f>
         <v>110</v>
       </c>
-      <c r="D85" s="136" cm="1">
+      <c r="D85" s="133" cm="1">
         <f t="array" ref="D85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52749,7 +52745,7 @@
 )</f>
         <v>175</v>
       </c>
-      <c r="E85" s="136" t="str" cm="1">
+      <c r="E85" s="133" t="str" cm="1">
         <f t="array" ref="E85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52767,7 +52763,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F85" s="136" t="str" cm="1">
+      <c r="F85" s="133" t="str" cm="1">
         <f t="array" ref="F85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52785,7 +52781,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G85" s="136" t="str" cm="1">
+      <c r="G85" s="133" t="str" cm="1">
         <f t="array" ref="G85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52803,7 +52799,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H85" s="136" t="str" cm="1">
+      <c r="H85" s="133" t="str" cm="1">
         <f t="array" ref="H85">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A85,
            'Individual Results'!$C$2:$C$413, $B85,
@@ -52821,21 +52817,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I85" s="136">
-        <f>SUM(C85:H85)</f>
+      <c r="I85" s="133">
+        <f t="shared" si="2"/>
         <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="136" t="str">
+      <c r="A86" s="133" t="str">
         <f>TeamHelper!I80</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B86" s="136" t="str">
+      <c r="B86" s="133" t="str">
         <f>TeamHelper!H80</f>
         <v>Argyle</v>
       </c>
-      <c r="C86" s="136" cm="1">
+      <c r="C86" s="133" cm="1">
         <f t="array" ref="C86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52853,7 +52849,7 @@
 )</f>
         <v>170</v>
       </c>
-      <c r="D86" s="136" cm="1">
+      <c r="D86" s="133" cm="1">
         <f t="array" ref="D86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52871,7 +52867,7 @@
 )</f>
         <v>114</v>
       </c>
-      <c r="E86" s="136" t="str" cm="1">
+      <c r="E86" s="133" t="str" cm="1">
         <f t="array" ref="E86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52889,7 +52885,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F86" s="136" t="str" cm="1">
+      <c r="F86" s="133" t="str" cm="1">
         <f t="array" ref="F86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52907,7 +52903,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G86" s="136" t="str" cm="1">
+      <c r="G86" s="133" t="str" cm="1">
         <f t="array" ref="G86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52925,7 +52921,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H86" s="136" t="str" cm="1">
+      <c r="H86" s="133" t="str" cm="1">
         <f t="array" ref="H86">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A86,
            'Individual Results'!$C$2:$C$413, $B86,
@@ -52943,21 +52939,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I86" s="136">
-        <f>SUM(C86:H86)</f>
+      <c r="I86" s="133">
+        <f t="shared" si="2"/>
         <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="136" t="str">
+      <c r="A87" s="133" t="str">
         <f>TeamHelper!I97</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B87" s="136" t="str">
+      <c r="B87" s="133" t="str">
         <f>TeamHelper!H97</f>
         <v>Whistler</v>
       </c>
-      <c r="C87" s="136" cm="1">
+      <c r="C87" s="133" cm="1">
         <f t="array" ref="C87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -52975,7 +52971,7 @@
 )</f>
         <v>81</v>
       </c>
-      <c r="D87" s="136" cm="1">
+      <c r="D87" s="133" cm="1">
         <f t="array" ref="D87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -52993,7 +52989,7 @@
 )</f>
         <v>116</v>
       </c>
-      <c r="E87" s="136" t="str" cm="1">
+      <c r="E87" s="133" t="str" cm="1">
         <f t="array" ref="E87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -53011,7 +53007,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F87" s="136" t="str" cm="1">
+      <c r="F87" s="133" t="str" cm="1">
         <f t="array" ref="F87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -53029,7 +53025,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G87" s="136" t="str" cm="1">
+      <c r="G87" s="133" t="str" cm="1">
         <f t="array" ref="G87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -53047,7 +53043,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H87" s="136" t="str" cm="1">
+      <c r="H87" s="133" t="str" cm="1">
         <f t="array" ref="H87">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A87,
            'Individual Results'!$C$2:$C$413, $B87,
@@ -53065,21 +53061,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I87" s="136">
-        <f>SUM(C87:H87)</f>
+      <c r="I87" s="133">
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="136" t="str">
+      <c r="A88" s="133" t="str">
         <f>TeamHelper!I95</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B88" s="136" t="str">
+      <c r="B88" s="133" t="str">
         <f>TeamHelper!H95</f>
         <v>Sutherland</v>
       </c>
-      <c r="C88" s="136" t="str" cm="1">
+      <c r="C88" s="133" t="str" cm="1">
         <f t="array" ref="C88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53097,7 +53093,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D88" s="136" cm="1">
+      <c r="D88" s="133" cm="1">
         <f t="array" ref="D88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53115,7 +53111,7 @@
 )</f>
         <v>139</v>
       </c>
-      <c r="E88" s="136" t="str" cm="1">
+      <c r="E88" s="133" t="str" cm="1">
         <f t="array" ref="E88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53133,7 +53129,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F88" s="136" t="str" cm="1">
+      <c r="F88" s="133" t="str" cm="1">
         <f t="array" ref="F88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53151,7 +53147,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G88" s="136" t="str" cm="1">
+      <c r="G88" s="133" t="str" cm="1">
         <f t="array" ref="G88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53169,7 +53165,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H88" s="136" t="str" cm="1">
+      <c r="H88" s="133" t="str" cm="1">
         <f t="array" ref="H88">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A88,
            'Individual Results'!$C$2:$C$413, $B88,
@@ -53187,21 +53183,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I88" s="136">
-        <f>SUM(C88:H88)</f>
+      <c r="I88" s="133">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" s="136" t="str">
+      <c r="A89" s="133" t="str">
         <f>TeamHelper!I82</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B89" s="136" t="str">
+      <c r="B89" s="133" t="str">
         <f>TeamHelper!H82</f>
         <v>Burnaby Mtn</v>
       </c>
-      <c r="C89" s="136" cm="1">
+      <c r="C89" s="133" cm="1">
         <f t="array" ref="C89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53219,7 +53215,7 @@
 )</f>
         <v>59</v>
       </c>
-      <c r="D89" s="136" t="str" cm="1">
+      <c r="D89" s="133" t="str" cm="1">
         <f t="array" ref="D89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53237,7 +53233,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E89" s="136" t="str" cm="1">
+      <c r="E89" s="133" t="str" cm="1">
         <f t="array" ref="E89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53255,7 +53251,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F89" s="136" t="str" cm="1">
+      <c r="F89" s="133" t="str" cm="1">
         <f t="array" ref="F89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53273,7 +53269,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G89" s="136" t="str" cm="1">
+      <c r="G89" s="133" t="str" cm="1">
         <f t="array" ref="G89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53291,7 +53287,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H89" s="136" t="str" cm="1">
+      <c r="H89" s="133" t="str" cm="1">
         <f t="array" ref="H89">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A89,
            'Individual Results'!$C$2:$C$413, $B89,
@@ -53309,21 +53305,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I89" s="136">
-        <f>SUM(C89:H89)</f>
+      <c r="I89" s="133">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" s="134" t="str">
+      <c r="A90" s="18" t="str">
         <f>TeamHelper!I84</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B90" s="134" t="str">
+      <c r="B90" s="18" t="str">
         <f>TeamHelper!H84</f>
         <v>Coast Mtn</v>
       </c>
-      <c r="C90" s="134" t="str" cm="1">
+      <c r="C90" s="18" t="str" cm="1">
         <f t="array" ref="C90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53341,7 +53337,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D90" s="134" t="str" cm="1">
+      <c r="D90" s="18" t="str" cm="1">
         <f t="array" ref="D90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53359,7 +53355,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E90" s="134" t="str" cm="1">
+      <c r="E90" s="18" t="str" cm="1">
         <f t="array" ref="E90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53377,7 +53373,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F90" s="134" t="str" cm="1">
+      <c r="F90" s="18" t="str" cm="1">
         <f t="array" ref="F90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53395,7 +53391,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G90" s="134" t="str" cm="1">
+      <c r="G90" s="18" t="str" cm="1">
         <f t="array" ref="G90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53413,7 +53409,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H90" s="134" t="str" cm="1">
+      <c r="H90" s="18" t="str" cm="1">
         <f t="array" ref="H90">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A90,
            'Individual Results'!$C$2:$C$413, $B90,
@@ -53431,21 +53427,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I90" s="134">
-        <f>SUM(C90:H90)</f>
+      <c r="I90" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="134" t="str">
+      <c r="A91" s="18" t="str">
         <f>TeamHelper!I85</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B91" s="134" t="str">
+      <c r="B91" s="18" t="str">
         <f>TeamHelper!H85</f>
         <v>Elphinstone</v>
       </c>
-      <c r="C91" s="134" t="str" cm="1">
+      <c r="C91" s="18" t="str" cm="1">
         <f t="array" ref="C91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53463,7 +53459,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D91" s="134" t="str" cm="1">
+      <c r="D91" s="18" t="str" cm="1">
         <f t="array" ref="D91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53481,7 +53477,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E91" s="134" t="str" cm="1">
+      <c r="E91" s="18" t="str" cm="1">
         <f t="array" ref="E91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53499,7 +53495,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F91" s="134" t="str" cm="1">
+      <c r="F91" s="18" t="str" cm="1">
         <f t="array" ref="F91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53517,7 +53513,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G91" s="134" t="str" cm="1">
+      <c r="G91" s="18" t="str" cm="1">
         <f t="array" ref="G91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53535,7 +53531,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H91" s="134" t="str" cm="1">
+      <c r="H91" s="18" t="str" cm="1">
         <f t="array" ref="H91">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A91,
            'Individual Results'!$C$2:$C$413, $B91,
@@ -53553,21 +53549,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I91" s="134">
-        <f>SUM(C91:H91)</f>
+      <c r="I91" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="134" t="str">
+      <c r="A92" s="18" t="str">
         <f>TeamHelper!I86</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B92" s="134" t="str">
+      <c r="B92" s="18" t="str">
         <f>TeamHelper!H86</f>
         <v>GW Graham</v>
       </c>
-      <c r="C92" s="134" t="str" cm="1">
+      <c r="C92" s="18" t="str" cm="1">
         <f t="array" ref="C92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53585,7 +53581,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D92" s="134" t="str" cm="1">
+      <c r="D92" s="18" t="str" cm="1">
         <f t="array" ref="D92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53603,7 +53599,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E92" s="134" t="str" cm="1">
+      <c r="E92" s="18" t="str" cm="1">
         <f t="array" ref="E92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53621,7 +53617,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F92" s="134" t="str" cm="1">
+      <c r="F92" s="18" t="str" cm="1">
         <f t="array" ref="F92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53639,7 +53635,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G92" s="134" t="str" cm="1">
+      <c r="G92" s="18" t="str" cm="1">
         <f t="array" ref="G92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53657,7 +53653,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H92" s="134" t="str" cm="1">
+      <c r="H92" s="18" t="str" cm="1">
         <f t="array" ref="H92">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A92,
            'Individual Results'!$C$2:$C$413, $B92,
@@ -53675,21 +53671,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I92" s="134">
-        <f>SUM(C92:H92)</f>
+      <c r="I92" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="134" t="str">
+      <c r="A93" s="18" t="str">
         <f>TeamHelper!I81</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B93" s="134" t="str">
+      <c r="B93" s="18" t="str">
         <f>TeamHelper!H81</f>
         <v>Brockton</v>
       </c>
-      <c r="C93" s="134" t="str" cm="1">
+      <c r="C93" s="18" t="str" cm="1">
         <f t="array" ref="C93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53707,7 +53703,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D93" s="134" t="str" cm="1">
+      <c r="D93" s="18" t="str" cm="1">
         <f t="array" ref="D93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53725,7 +53721,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E93" s="134" t="str" cm="1">
+      <c r="E93" s="18" t="str" cm="1">
         <f t="array" ref="E93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53743,7 +53739,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F93" s="134" t="str" cm="1">
+      <c r="F93" s="18" t="str" cm="1">
         <f t="array" ref="F93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53761,7 +53757,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G93" s="134" t="str" cm="1">
+      <c r="G93" s="18" t="str" cm="1">
         <f t="array" ref="G93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53779,7 +53775,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H93" s="134" t="str" cm="1">
+      <c r="H93" s="18" t="str" cm="1">
         <f t="array" ref="H93">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A93,
            'Individual Results'!$C$2:$C$413, $B93,
@@ -53797,21 +53793,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I93" s="134">
-        <f>SUM(C93:H93)</f>
+      <c r="I93" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="134" t="str">
+      <c r="A94" s="18" t="str">
         <f>TeamHelper!I91</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B94" s="134" t="str">
+      <c r="B94" s="18" t="str">
         <f>TeamHelper!H91</f>
         <v>Rockridge</v>
       </c>
-      <c r="C94" s="134" t="str" cm="1">
+      <c r="C94" s="18" t="str" cm="1">
         <f t="array" ref="C94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53829,7 +53825,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D94" s="134" t="str" cm="1">
+      <c r="D94" s="18" t="str" cm="1">
         <f t="array" ref="D94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53847,7 +53843,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E94" s="134" t="str" cm="1">
+      <c r="E94" s="18" t="str" cm="1">
         <f t="array" ref="E94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53865,7 +53861,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F94" s="134" t="str" cm="1">
+      <c r="F94" s="18" t="str" cm="1">
         <f t="array" ref="F94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53883,7 +53879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G94" s="134" t="str" cm="1">
+      <c r="G94" s="18" t="str" cm="1">
         <f t="array" ref="G94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53901,7 +53897,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H94" s="134" t="str" cm="1">
+      <c r="H94" s="18" t="str" cm="1">
         <f t="array" ref="H94">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A94,
            'Individual Results'!$C$2:$C$413, $B94,
@@ -53919,21 +53915,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I94" s="134">
-        <f>SUM(C94:H94)</f>
+      <c r="I94" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="134" t="str">
+      <c r="A95" s="18" t="str">
         <f>TeamHelper!I94</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B95" s="134" t="str">
+      <c r="B95" s="18" t="str">
         <f>TeamHelper!H94</f>
         <v>STA</v>
       </c>
-      <c r="C95" s="134" t="str" cm="1">
+      <c r="C95" s="18" t="str" cm="1">
         <f t="array" ref="C95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -53951,7 +53947,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D95" s="134" t="str" cm="1">
+      <c r="D95" s="18" t="str" cm="1">
         <f t="array" ref="D95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -53969,7 +53965,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E95" s="134" t="str" cm="1">
+      <c r="E95" s="18" t="str" cm="1">
         <f t="array" ref="E95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -53987,7 +53983,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F95" s="134" t="str" cm="1">
+      <c r="F95" s="18" t="str" cm="1">
         <f t="array" ref="F95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -54005,7 +54001,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G95" s="134" t="str" cm="1">
+      <c r="G95" s="18" t="str" cm="1">
         <f t="array" ref="G95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -54023,7 +54019,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H95" s="134" t="str" cm="1">
+      <c r="H95" s="18" t="str" cm="1">
         <f t="array" ref="H95">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A95,
            'Individual Results'!$C$2:$C$413, $B95,
@@ -54041,21 +54037,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I95" s="134">
-        <f>SUM(C95:H95)</f>
+      <c r="I95" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="134" t="str">
+      <c r="A96" s="18" t="str">
         <f>TeamHelper!I92</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B96" s="134" t="str">
+      <c r="B96" s="18" t="str">
         <f>TeamHelper!H92</f>
         <v>Seycove</v>
       </c>
-      <c r="C96" s="134" t="str" cm="1">
+      <c r="C96" s="18" t="str" cm="1">
         <f t="array" ref="C96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54073,7 +54069,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D96" s="134" t="str" cm="1">
+      <c r="D96" s="18" t="str" cm="1">
         <f t="array" ref="D96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54091,7 +54087,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E96" s="134" t="str" cm="1">
+      <c r="E96" s="18" t="str" cm="1">
         <f t="array" ref="E96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54109,7 +54105,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F96" s="134" t="str" cm="1">
+      <c r="F96" s="18" t="str" cm="1">
         <f t="array" ref="F96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54127,7 +54123,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G96" s="134" t="str" cm="1">
+      <c r="G96" s="18" t="str" cm="1">
         <f t="array" ref="G96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54145,7 +54141,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H96" s="134" t="str" cm="1">
+      <c r="H96" s="18" t="str" cm="1">
         <f t="array" ref="H96">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A96,
            'Individual Results'!$C$2:$C$413, $B96,
@@ -54163,21 +54159,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I96" s="134">
-        <f>SUM(C96:H96)</f>
+      <c r="I96" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="134" t="str">
+      <c r="A97" s="18" t="str">
         <f>TeamHelper!I98</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B97" s="134" t="str">
+      <c r="B97" s="18" t="str">
         <f>TeamHelper!H98</f>
         <v>Windsor</v>
       </c>
-      <c r="C97" s="134" t="str" cm="1">
+      <c r="C97" s="18" t="str" cm="1">
         <f t="array" ref="C97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54195,7 +54191,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D97" s="134" t="str" cm="1">
+      <c r="D97" s="18" t="str" cm="1">
         <f t="array" ref="D97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54213,7 +54209,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E97" s="134" t="str" cm="1">
+      <c r="E97" s="18" t="str" cm="1">
         <f t="array" ref="E97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54231,7 +54227,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F97" s="134" t="str" cm="1">
+      <c r="F97" s="18" t="str" cm="1">
         <f t="array" ref="F97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54249,7 +54245,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G97" s="134" t="str" cm="1">
+      <c r="G97" s="18" t="str" cm="1">
         <f t="array" ref="G97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54267,7 +54263,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H97" s="134" t="str" cm="1">
+      <c r="H97" s="18" t="str" cm="1">
         <f t="array" ref="H97">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A97,
            'Individual Results'!$C$2:$C$413, $B97,
@@ -54285,21 +54281,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I97" s="134">
-        <f>SUM(C97:H97)</f>
+      <c r="I97" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="134" t="str">
+      <c r="A98" s="18" t="str">
         <f>TeamHelper!I98</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B98" s="134" t="str">
+      <c r="B98" s="18" t="str">
         <f>TeamHelper!H98</f>
         <v>Windsor</v>
       </c>
-      <c r="C98" s="134" t="str" cm="1">
+      <c r="C98" s="18" t="str" cm="1">
         <f t="array" ref="C98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54317,7 +54313,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D98" s="134" t="str" cm="1">
+      <c r="D98" s="18" t="str" cm="1">
         <f t="array" ref="D98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54335,7 +54331,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E98" s="134" t="str" cm="1">
+      <c r="E98" s="18" t="str" cm="1">
         <f t="array" ref="E98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54353,7 +54349,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F98" s="134" t="str" cm="1">
+      <c r="F98" s="18" t="str" cm="1">
         <f t="array" ref="F98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54371,7 +54367,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G98" s="134" t="str" cm="1">
+      <c r="G98" s="18" t="str" cm="1">
         <f t="array" ref="G98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54389,7 +54385,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H98" s="134" t="str" cm="1">
+      <c r="H98" s="18" t="str" cm="1">
         <f t="array" ref="H98">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A98,
            'Individual Results'!$C$2:$C$413, $B98,
@@ -54407,21 +54403,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I98" s="134">
-        <f>SUM(C98:H98)</f>
+      <c r="I98" s="18">
+        <f t="shared" ref="I98:I129" si="3">SUM(C98:H98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="134" t="str">
+      <c r="A99" s="18" t="str">
         <f>TeamHelper!I89</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B99" s="134" t="str">
+      <c r="B99" s="18" t="str">
         <f>TeamHelper!H89</f>
         <v>Mulgrave</v>
       </c>
-      <c r="C99" s="134" t="str" cm="1">
+      <c r="C99" s="18" t="str" cm="1">
         <f t="array" ref="C99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54439,7 +54435,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D99" s="134" t="str" cm="1">
+      <c r="D99" s="18" t="str" cm="1">
         <f t="array" ref="D99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54457,7 +54453,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E99" s="134" t="str" cm="1">
+      <c r="E99" s="18" t="str" cm="1">
         <f t="array" ref="E99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54475,7 +54471,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F99" s="134" t="str" cm="1">
+      <c r="F99" s="18" t="str" cm="1">
         <f t="array" ref="F99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54493,7 +54489,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G99" s="134" t="str" cm="1">
+      <c r="G99" s="18" t="str" cm="1">
         <f t="array" ref="G99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54511,7 +54507,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H99" s="134" t="str" cm="1">
+      <c r="H99" s="18" t="str" cm="1">
         <f t="array" ref="H99">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A99,
            'Individual Results'!$C$2:$C$413, $B99,
@@ -54529,21 +54525,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I99" s="134">
-        <f>SUM(C99:H99)</f>
+      <c r="I99" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="134" t="str">
+      <c r="A100" s="18" t="str">
         <f>TeamHelper!I93</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B100" s="134" t="str">
+      <c r="B100" s="18" t="str">
         <f>TeamHelper!H93</f>
         <v>St. Georges</v>
       </c>
-      <c r="C100" s="134" t="str" cm="1">
+      <c r="C100" s="18" t="str" cm="1">
         <f t="array" ref="C100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54561,7 +54557,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D100" s="134" t="str" cm="1">
+      <c r="D100" s="18" t="str" cm="1">
         <f t="array" ref="D100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54579,7 +54575,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E100" s="134" t="str" cm="1">
+      <c r="E100" s="18" t="str" cm="1">
         <f t="array" ref="E100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54597,7 +54593,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F100" s="134" t="str" cm="1">
+      <c r="F100" s="18" t="str" cm="1">
         <f t="array" ref="F100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54615,7 +54611,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G100" s="134" t="str" cm="1">
+      <c r="G100" s="18" t="str" cm="1">
         <f t="array" ref="G100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54633,7 +54629,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H100" s="134" t="str" cm="1">
+      <c r="H100" s="18" t="str" cm="1">
         <f t="array" ref="H100">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A100,
            'Individual Results'!$C$2:$C$413, $B100,
@@ -54651,21 +54647,21 @@
 )</f>
         <v/>
       </c>
-      <c r="I100" s="134">
-        <f>SUM(C100:H100)</f>
+      <c r="I100" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="134" t="str">
+      <c r="A101" s="18" t="str">
         <f>TeamHelper!I96</f>
         <v>Sr Boys</v>
       </c>
-      <c r="B101" s="134" t="str">
+      <c r="B101" s="18" t="str">
         <f>TeamHelper!H96</f>
         <v>West Van</v>
       </c>
-      <c r="C101" s="134" t="str" cm="1">
+      <c r="C101" s="18" t="str" cm="1">
         <f t="array" ref="C101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54683,7 +54679,7 @@
 )</f>
         <v/>
       </c>
-      <c r="D101" s="134" t="str" cm="1">
+      <c r="D101" s="18" t="str" cm="1">
         <f t="array" ref="D101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54701,7 +54697,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E101" s="134" t="str" cm="1">
+      <c r="E101" s="18" t="str" cm="1">
         <f t="array" ref="E101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54719,7 +54715,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F101" s="134" t="str" cm="1">
+      <c r="F101" s="18" t="str" cm="1">
         <f t="array" ref="F101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54737,7 +54733,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G101" s="134" t="str" cm="1">
+      <c r="G101" s="18" t="str" cm="1">
         <f t="array" ref="G101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54755,7 +54751,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H101" s="134" t="str" cm="1">
+      <c r="H101" s="18" t="str" cm="1">
         <f t="array" ref="H101">IF(
   COUNTIFS('Individual Results'!$D$2:$D$413, $A101,
            'Individual Results'!$C$2:$C$413, $B101,
@@ -54773,8 +54769,8 @@
 )</f>
         <v/>
       </c>
-      <c r="I101" s="134">
-        <f>SUM(C101:H101)</f>
+      <c r="I101" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Results 2025 MASTER.xlsx
+++ b/Results 2025 MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sd44o365-my.sharepoint.com/personal/19247_sd44_ca/Documents/nsssaa-mtb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{05E41924-BF40-4F1E-B19A-02F2081E0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CA20D8C-5549-413D-BD38-DFB2556C030B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{05E41924-BF40-4F1E-B19A-02F2081E0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C243F18-DE50-45AE-A96A-D4E5AD751DF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="669" activeTab="4" xr2:uid="{EF65BA04-60F3-4F2B-BC8E-976066A335E4}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="497">
   <si>
     <t>Student Name</t>
   </si>
@@ -2372,9 +2372,6 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,6 +2405,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4515,6 +4515,10 @@
 </FeaturePropertyBags>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5589,7 +5593,7 @@
       <c r="D14" s="110">
         <v>8177</v>
       </c>
-      <c r="E14" s="139"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="93" t="b">
         <v>0</v>
       </c>
@@ -5619,7 +5623,7 @@
       <c r="D16" s="111">
         <v>812</v>
       </c>
-      <c r="E16" s="140"/>
+      <c r="E16" s="139"/>
       <c r="F16" s="92" t="b">
         <v>1</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="D17" s="111">
         <v>819</v>
       </c>
-      <c r="E17" s="140"/>
+      <c r="E17" s="139"/>
       <c r="F17" s="92" t="b">
         <v>1</v>
       </c>
@@ -5661,7 +5665,7 @@
       <c r="D18" s="111">
         <v>831</v>
       </c>
-      <c r="E18" s="140"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="92" t="b">
         <v>1</v>
       </c>
@@ -5682,7 +5686,7 @@
       <c r="D19" s="111">
         <v>832</v>
       </c>
-      <c r="E19" s="140"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="92" t="b">
         <v>1</v>
       </c>
@@ -6078,7 +6082,7 @@
       <c r="D40" s="115">
         <v>10149</v>
       </c>
-      <c r="E40" s="141"/>
+      <c r="E40" s="140"/>
       <c r="F40" s="69" t="b">
         <v>0</v>
       </c>
@@ -6108,7 +6112,7 @@
       <c r="D42" s="116">
         <v>12009</v>
       </c>
-      <c r="E42" s="142"/>
+      <c r="E42" s="141"/>
       <c r="F42" s="69" t="b">
         <v>0</v>
       </c>
@@ -6129,7 +6133,7 @@
       <c r="D43" s="116">
         <v>12010</v>
       </c>
-      <c r="E43" s="142"/>
+      <c r="E43" s="141"/>
       <c r="F43" s="69" t="b">
         <v>0</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="D44" s="117">
         <v>12011</v>
       </c>
-      <c r="E44" s="143"/>
+      <c r="E44" s="142"/>
       <c r="F44" s="69" t="b">
         <v>1</v>
       </c>
@@ -6171,7 +6175,7 @@
       <c r="D45" s="116">
         <v>12231</v>
       </c>
-      <c r="E45" s="142"/>
+      <c r="E45" s="141"/>
       <c r="F45" s="69" t="b">
         <v>1</v>
       </c>
@@ -6192,7 +6196,7 @@
       <c r="D46" s="116">
         <v>12232</v>
       </c>
-      <c r="E46" s="142"/>
+      <c r="E46" s="141"/>
       <c r="F46" s="69" t="b">
         <v>1</v>
       </c>
@@ -6213,7 +6217,7 @@
       <c r="D47" s="116">
         <v>12233</v>
       </c>
-      <c r="E47" s="142"/>
+      <c r="E47" s="141"/>
       <c r="F47" s="69" t="b">
         <v>0</v>
       </c>
@@ -6234,7 +6238,7 @@
       <c r="D48" s="116">
         <v>12239</v>
       </c>
-      <c r="E48" s="142"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="69" t="b">
         <v>0</v>
       </c>
@@ -6255,7 +6259,7 @@
       <c r="D49" s="116">
         <v>12250</v>
       </c>
-      <c r="E49" s="142"/>
+      <c r="E49" s="141"/>
       <c r="F49" s="69" t="b">
         <v>0</v>
       </c>
@@ -6276,7 +6280,7 @@
       <c r="D50" s="116">
         <v>12253</v>
       </c>
-      <c r="E50" s="142"/>
+      <c r="E50" s="141"/>
       <c r="F50" s="69" t="b">
         <v>1</v>
       </c>
@@ -6297,7 +6301,7 @@
       <c r="D51" s="116">
         <v>12263</v>
       </c>
-      <c r="E51" s="142"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="69" t="b">
         <v>0</v>
       </c>
@@ -6318,7 +6322,7 @@
       <c r="D52" s="116">
         <v>12264</v>
       </c>
-      <c r="E52" s="142"/>
+      <c r="E52" s="141"/>
       <c r="F52" s="69" t="b">
         <v>1</v>
       </c>
@@ -6339,7 +6343,7 @@
       <c r="D53" s="116">
         <v>12265</v>
       </c>
-      <c r="E53" s="142"/>
+      <c r="E53" s="141"/>
       <c r="F53" s="69" t="b">
         <v>1</v>
       </c>
@@ -6360,7 +6364,7 @@
       <c r="D54" s="116">
         <v>12266</v>
       </c>
-      <c r="E54" s="142"/>
+      <c r="E54" s="141"/>
       <c r="F54" s="69" t="b">
         <v>1</v>
       </c>
@@ -6381,7 +6385,7 @@
       <c r="D55" s="116">
         <v>12280</v>
       </c>
-      <c r="E55" s="142"/>
+      <c r="E55" s="141"/>
       <c r="F55" s="69" t="b">
         <v>0</v>
       </c>
@@ -6402,7 +6406,7 @@
       <c r="D56" s="116">
         <v>12285</v>
       </c>
-      <c r="E56" s="142"/>
+      <c r="E56" s="141"/>
       <c r="F56" s="69" t="b">
         <v>1</v>
       </c>
@@ -6687,7 +6691,7 @@
       <c r="D73" s="116">
         <v>12286</v>
       </c>
-      <c r="E73" s="142"/>
+      <c r="E73" s="141"/>
       <c r="F73" s="69" t="b">
         <v>0</v>
       </c>
@@ -6708,7 +6712,7 @@
       <c r="D74" s="116">
         <v>12287</v>
       </c>
-      <c r="E74" s="142"/>
+      <c r="E74" s="141"/>
       <c r="F74" s="69" t="b">
         <v>0</v>
       </c>
@@ -6729,7 +6733,7 @@
       <c r="D75" s="116">
         <v>12288</v>
       </c>
-      <c r="E75" s="142"/>
+      <c r="E75" s="141"/>
       <c r="F75" s="69" t="b">
         <v>0</v>
       </c>
@@ -6848,7 +6852,7 @@
       <c r="D83" s="116">
         <v>12304</v>
       </c>
-      <c r="E83" s="142"/>
+      <c r="E83" s="141"/>
       <c r="F83" s="69" t="b">
         <v>1</v>
       </c>
@@ -6869,7 +6873,7 @@
       <c r="D84" s="116">
         <v>12305</v>
       </c>
-      <c r="E84" s="142"/>
+      <c r="E84" s="141"/>
       <c r="F84" s="69" t="b">
         <v>1</v>
       </c>
@@ -6890,7 +6894,7 @@
       <c r="D85" s="116">
         <v>12306</v>
       </c>
-      <c r="E85" s="142"/>
+      <c r="E85" s="141"/>
       <c r="F85" s="69" t="b">
         <v>1</v>
       </c>
@@ -6911,7 +6915,7 @@
       <c r="D86" s="99">
         <v>12307</v>
       </c>
-      <c r="E86" s="144"/>
+      <c r="E86" s="143"/>
       <c r="F86" s="69" t="b">
         <v>1</v>
       </c>
@@ -7166,7 +7170,7 @@
       <c r="D102" s="116">
         <v>12309</v>
       </c>
-      <c r="E102" s="142"/>
+      <c r="E102" s="141"/>
       <c r="F102" s="69" t="b">
         <v>0</v>
       </c>
@@ -7187,7 +7191,7 @@
       <c r="D103" s="116">
         <v>12311</v>
       </c>
-      <c r="E103" s="142"/>
+      <c r="E103" s="141"/>
       <c r="F103" s="69" t="b">
         <v>1</v>
       </c>
@@ -7208,7 +7212,7 @@
       <c r="D104" s="116">
         <v>12315</v>
       </c>
-      <c r="E104" s="142"/>
+      <c r="E104" s="141"/>
       <c r="F104" s="69" t="b">
         <v>0</v>
       </c>
@@ -7229,7 +7233,7 @@
       <c r="D105" s="116">
         <v>12316</v>
       </c>
-      <c r="E105" s="142"/>
+      <c r="E105" s="141"/>
       <c r="F105" s="69" t="b">
         <v>1</v>
       </c>
@@ -7250,7 +7254,7 @@
       <c r="D106" s="116">
         <v>12317</v>
       </c>
-      <c r="E106" s="142"/>
+      <c r="E106" s="141"/>
       <c r="F106" s="69" t="b">
         <v>0</v>
       </c>
@@ -7271,7 +7275,7 @@
       <c r="D107" s="116">
         <v>12318</v>
       </c>
-      <c r="E107" s="142"/>
+      <c r="E107" s="141"/>
       <c r="F107" s="69" t="b">
         <v>1</v>
       </c>
@@ -7292,7 +7296,7 @@
       <c r="D108" s="116">
         <v>12319</v>
       </c>
-      <c r="E108" s="142"/>
+      <c r="E108" s="141"/>
       <c r="F108" s="69" t="b">
         <v>1</v>
       </c>
@@ -7313,7 +7317,7 @@
       <c r="D109" s="116">
         <v>12320</v>
       </c>
-      <c r="E109" s="142"/>
+      <c r="E109" s="141"/>
       <c r="F109" s="69" t="b">
         <v>1</v>
       </c>
@@ -7334,7 +7338,7 @@
       <c r="D110" s="116">
         <v>12321</v>
       </c>
-      <c r="E110" s="142"/>
+      <c r="E110" s="141"/>
       <c r="F110" s="69" t="b">
         <v>1</v>
       </c>
@@ -7892,7 +7896,7 @@
       <c r="D144" s="116">
         <v>12323</v>
       </c>
-      <c r="E144" s="142"/>
+      <c r="E144" s="141"/>
       <c r="F144" s="69" t="b">
         <v>0</v>
       </c>
@@ -8801,7 +8805,7 @@
       <c r="D197" s="116">
         <v>12324</v>
       </c>
-      <c r="E197" s="142"/>
+      <c r="E197" s="141"/>
       <c r="F197" s="69" t="b">
         <v>0</v>
       </c>
@@ -8984,7 +8988,7 @@
       <c r="D208" s="116">
         <v>12326</v>
       </c>
-      <c r="E208" s="142"/>
+      <c r="E208" s="141"/>
       <c r="F208" s="69" t="b">
         <v>0</v>
       </c>
@@ -9005,7 +9009,7 @@
       <c r="D209" s="116">
         <v>12327</v>
       </c>
-      <c r="E209" s="142"/>
+      <c r="E209" s="141"/>
       <c r="F209" s="69" t="b">
         <v>0</v>
       </c>
@@ -9026,7 +9030,7 @@
       <c r="D210" s="116">
         <v>12328</v>
       </c>
-      <c r="E210" s="142"/>
+      <c r="E210" s="141"/>
       <c r="F210" s="69" t="b">
         <v>0</v>
       </c>
@@ -9614,7 +9618,7 @@
       <c r="D242" s="116">
         <v>12329</v>
       </c>
-      <c r="E242" s="142"/>
+      <c r="E242" s="141"/>
       <c r="F242" s="69" t="b">
         <v>1</v>
       </c>
@@ -9635,7 +9639,7 @@
       <c r="D243" s="116">
         <v>12330</v>
       </c>
-      <c r="E243" s="142"/>
+      <c r="E243" s="141"/>
       <c r="F243" s="69" t="b">
         <v>1</v>
       </c>
@@ -9656,7 +9660,7 @@
       <c r="D244" s="116">
         <v>12331</v>
       </c>
-      <c r="E244" s="142"/>
+      <c r="E244" s="141"/>
       <c r="F244" s="69" t="b">
         <v>1</v>
       </c>
@@ -9677,7 +9681,7 @@
       <c r="D245" s="116">
         <v>12006</v>
       </c>
-      <c r="E245" s="142"/>
+      <c r="E245" s="141"/>
       <c r="F245" s="69" t="b">
         <v>0</v>
       </c>
@@ -10006,7 +10010,7 @@
       <c r="D264" s="116">
         <v>12332</v>
       </c>
-      <c r="E264" s="142"/>
+      <c r="E264" s="141"/>
       <c r="F264" s="69" t="b">
         <v>1</v>
       </c>
@@ -10027,7 +10031,7 @@
       <c r="D265" s="116">
         <v>12333</v>
       </c>
-      <c r="E265" s="142"/>
+      <c r="E265" s="141"/>
       <c r="F265" s="69" t="b">
         <v>1</v>
       </c>
@@ -10048,7 +10052,7 @@
       <c r="D266" s="116">
         <v>12334</v>
       </c>
-      <c r="E266" s="142"/>
+      <c r="E266" s="141"/>
       <c r="F266" s="69" t="b">
         <v>1</v>
       </c>
@@ -10069,7 +10073,7 @@
       <c r="D267" s="116">
         <v>12335</v>
       </c>
-      <c r="E267" s="142"/>
+      <c r="E267" s="141"/>
       <c r="F267" s="69" t="b">
         <v>0</v>
       </c>
@@ -10090,7 +10094,7 @@
       <c r="D268" s="116">
         <v>12336</v>
       </c>
-      <c r="E268" s="142"/>
+      <c r="E268" s="141"/>
       <c r="F268" s="69" t="b">
         <v>1</v>
       </c>
@@ -10111,7 +10115,7 @@
       <c r="D269" s="116">
         <v>12337</v>
       </c>
-      <c r="E269" s="142"/>
+      <c r="E269" s="141"/>
       <c r="F269" s="69" t="b">
         <v>1</v>
       </c>
@@ -10132,7 +10136,7 @@
       <c r="D270" s="116">
         <v>12338</v>
       </c>
-      <c r="E270" s="142"/>
+      <c r="E270" s="141"/>
       <c r="F270" s="69" t="b">
         <v>1</v>
       </c>
@@ -10153,7 +10157,7 @@
       <c r="D271" s="116">
         <v>12339</v>
       </c>
-      <c r="E271" s="142"/>
+      <c r="E271" s="141"/>
       <c r="F271" s="69" t="b">
         <v>1</v>
       </c>
@@ -10174,7 +10178,7 @@
       <c r="D272" s="116">
         <v>12340</v>
       </c>
-      <c r="E272" s="142"/>
+      <c r="E272" s="141"/>
       <c r="F272" s="69" t="b">
         <v>1</v>
       </c>
@@ -10195,7 +10199,7 @@
       <c r="D273" s="116">
         <v>12341</v>
       </c>
-      <c r="E273" s="142"/>
+      <c r="E273" s="141"/>
       <c r="F273" s="69" t="b">
         <v>1</v>
       </c>
@@ -10216,7 +10220,7 @@
       <c r="D274" s="116">
         <v>12342</v>
       </c>
-      <c r="E274" s="142"/>
+      <c r="E274" s="141"/>
       <c r="F274" s="69" t="b">
         <v>1</v>
       </c>
@@ -10237,7 +10241,7 @@
       <c r="D275" s="116">
         <v>12343</v>
       </c>
-      <c r="E275" s="142"/>
+      <c r="E275" s="141"/>
       <c r="F275" s="69" t="b">
         <v>0</v>
       </c>
@@ -10258,7 +10262,7 @@
       <c r="D276" s="116">
         <v>12344</v>
       </c>
-      <c r="E276" s="142"/>
+      <c r="E276" s="141"/>
       <c r="F276" s="69" t="b">
         <v>0</v>
       </c>
@@ -10279,7 +10283,7 @@
       <c r="D277" s="116">
         <v>12345</v>
       </c>
-      <c r="E277" s="142"/>
+      <c r="E277" s="141"/>
       <c r="F277" s="69" t="b">
         <v>1</v>
       </c>
@@ -10300,7 +10304,7 @@
       <c r="D278" s="116">
         <v>12346</v>
       </c>
-      <c r="E278" s="142"/>
+      <c r="E278" s="141"/>
       <c r="F278" s="69" t="b">
         <v>1</v>
       </c>
@@ -10321,7 +10325,7 @@
       <c r="D279" s="116">
         <v>12347</v>
       </c>
-      <c r="E279" s="142"/>
+      <c r="E279" s="141"/>
       <c r="F279" s="69" t="b">
         <v>0</v>
       </c>
@@ -10342,7 +10346,7 @@
       <c r="D280" s="116">
         <v>12348</v>
       </c>
-      <c r="E280" s="142"/>
+      <c r="E280" s="141"/>
       <c r="F280" s="69" t="b">
         <v>1</v>
       </c>
@@ -10363,7 +10367,7 @@
       <c r="D281" s="116">
         <v>12349</v>
       </c>
-      <c r="E281" s="142"/>
+      <c r="E281" s="141"/>
       <c r="F281" s="69" t="b">
         <v>1</v>
       </c>
@@ -10384,7 +10388,7 @@
       <c r="D282" s="116">
         <v>12350</v>
       </c>
-      <c r="E282" s="142"/>
+      <c r="E282" s="141"/>
       <c r="F282" s="69" t="b">
         <v>1</v>
       </c>
@@ -10405,7 +10409,7 @@
       <c r="D283" s="116">
         <v>12351</v>
       </c>
-      <c r="E283" s="142"/>
+      <c r="E283" s="141"/>
       <c r="F283" s="69" t="b">
         <v>0</v>
       </c>
@@ -10426,7 +10430,7 @@
       <c r="D284" s="116">
         <v>12352</v>
       </c>
-      <c r="E284" s="142"/>
+      <c r="E284" s="141"/>
       <c r="F284" s="69" t="b">
         <v>1</v>
       </c>
@@ -10549,7 +10553,7 @@
       <c r="B293" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="138" t="s">
+      <c r="C293" s="137" t="s">
         <v>237</v>
       </c>
       <c r="D293" s="109">
@@ -10564,19 +10568,19 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="135" t="s">
+      <c r="A294" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="B294" s="135" t="s">
+      <c r="B294" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C294" s="136" t="s">
+      <c r="C294" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="D294" s="137">
+      <c r="D294" s="136">
         <v>8145</v>
       </c>
-      <c r="E294" s="145"/>
+      <c r="E294" s="144"/>
       <c r="F294" s="69" t="b">
         <v>1</v>
       </c>
@@ -10769,7 +10773,7 @@
       <c r="D305" s="116">
         <v>12353</v>
       </c>
-      <c r="E305" s="142"/>
+      <c r="E305" s="141"/>
       <c r="F305" s="69" t="b">
         <v>1</v>
       </c>
@@ -10790,7 +10794,7 @@
       <c r="D306" s="116">
         <v>12354</v>
       </c>
-      <c r="E306" s="142"/>
+      <c r="E306" s="141"/>
       <c r="F306" s="69" t="b">
         <v>1</v>
       </c>
@@ -10811,7 +10815,7 @@
       <c r="D307" s="116">
         <v>12355</v>
       </c>
-      <c r="E307" s="142"/>
+      <c r="E307" s="141"/>
       <c r="F307" s="69" t="b">
         <v>0</v>
       </c>
@@ -10832,7 +10836,7 @@
       <c r="D308" s="116">
         <v>12356</v>
       </c>
-      <c r="E308" s="142"/>
+      <c r="E308" s="141"/>
       <c r="F308" s="69" t="b">
         <v>0</v>
       </c>
@@ -11273,7 +11277,7 @@
       <c r="D333" s="116">
         <v>12357</v>
       </c>
-      <c r="E333" s="142"/>
+      <c r="E333" s="141"/>
       <c r="F333" s="69" t="b">
         <v>1</v>
       </c>
@@ -11294,7 +11298,7 @@
       <c r="D334" s="116">
         <v>12358</v>
       </c>
-      <c r="E334" s="142"/>
+      <c r="E334" s="141"/>
       <c r="F334" s="69" t="b">
         <v>0</v>
       </c>
@@ -11315,7 +11319,7 @@
       <c r="D335" s="116">
         <v>12359</v>
       </c>
-      <c r="E335" s="142"/>
+      <c r="E335" s="141"/>
       <c r="F335" s="69" t="b">
         <v>1</v>
       </c>
@@ -11336,7 +11340,7 @@
       <c r="D336" s="116">
         <v>12360</v>
       </c>
-      <c r="E336" s="142"/>
+      <c r="E336" s="141"/>
       <c r="F336" s="69" t="b">
         <v>1</v>
       </c>
@@ -11357,7 +11361,7 @@
       <c r="D337" s="116">
         <v>12361</v>
       </c>
-      <c r="E337" s="142"/>
+      <c r="E337" s="141"/>
       <c r="F337" s="69" t="b">
         <v>0</v>
       </c>
@@ -11378,7 +11382,7 @@
       <c r="D338" s="116">
         <v>12362</v>
       </c>
-      <c r="E338" s="142"/>
+      <c r="E338" s="141"/>
       <c r="F338" s="69" t="b">
         <v>1</v>
       </c>
@@ -11399,7 +11403,7 @@
       <c r="D339" s="116">
         <v>12363</v>
       </c>
-      <c r="E339" s="142"/>
+      <c r="E339" s="141"/>
       <c r="F339" s="69" t="b">
         <v>1</v>
       </c>
@@ -11420,7 +11424,7 @@
       <c r="D340" s="116">
         <v>12364</v>
       </c>
-      <c r="E340" s="142"/>
+      <c r="E340" s="141"/>
       <c r="F340" s="69" t="b">
         <v>1</v>
       </c>
@@ -11441,7 +11445,7 @@
       <c r="D341" s="116">
         <v>12365</v>
       </c>
-      <c r="E341" s="142"/>
+      <c r="E341" s="141"/>
       <c r="F341" s="69" t="b">
         <v>0</v>
       </c>
@@ -11462,7 +11466,7 @@
       <c r="D342" s="116">
         <v>12366</v>
       </c>
-      <c r="E342" s="142"/>
+      <c r="E342" s="141"/>
       <c r="F342" s="69" t="b">
         <v>0</v>
       </c>
@@ -11483,7 +11487,7 @@
       <c r="D343" s="116">
         <v>12367</v>
       </c>
-      <c r="E343" s="142"/>
+      <c r="E343" s="141"/>
       <c r="F343" s="69" t="b">
         <v>0</v>
       </c>
@@ -11504,7 +11508,7 @@
       <c r="D344" s="116">
         <v>12368</v>
       </c>
-      <c r="E344" s="142"/>
+      <c r="E344" s="141"/>
       <c r="F344" s="69" t="b">
         <v>1</v>
       </c>
@@ -11525,7 +11529,7 @@
       <c r="D345" s="116">
         <v>12369</v>
       </c>
-      <c r="E345" s="142"/>
+      <c r="E345" s="141"/>
       <c r="F345" s="69" t="b">
         <v>1</v>
       </c>
@@ -11546,7 +11550,7 @@
       <c r="D346" s="116">
         <v>12370</v>
       </c>
-      <c r="E346" s="142"/>
+      <c r="E346" s="141"/>
       <c r="F346" s="69" t="b">
         <v>1</v>
       </c>
@@ -11567,7 +11571,7 @@
       <c r="D347" s="116">
         <v>12371</v>
       </c>
-      <c r="E347" s="142"/>
+      <c r="E347" s="141"/>
       <c r="F347" s="69" t="b">
         <v>1</v>
       </c>
@@ -11588,7 +11592,7 @@
       <c r="D348" s="116">
         <v>12372</v>
       </c>
-      <c r="E348" s="142"/>
+      <c r="E348" s="141"/>
       <c r="F348" s="69" t="b">
         <v>1</v>
       </c>
@@ -11609,7 +11613,7 @@
       <c r="D349" s="116">
         <v>12373</v>
       </c>
-      <c r="E349" s="142"/>
+      <c r="E349" s="141"/>
       <c r="F349" s="69" t="b">
         <v>0</v>
       </c>
@@ -11630,7 +11634,7 @@
       <c r="D350" s="116">
         <v>12374</v>
       </c>
-      <c r="E350" s="142"/>
+      <c r="E350" s="141"/>
       <c r="F350" s="69" t="b">
         <v>0</v>
       </c>
@@ -11651,7 +11655,7 @@
       <c r="D351" s="116">
         <v>12375</v>
       </c>
-      <c r="E351" s="142"/>
+      <c r="E351" s="141"/>
       <c r="F351" s="69" t="b">
         <v>0</v>
       </c>
@@ -11672,7 +11676,7 @@
       <c r="D352" s="116">
         <v>12376</v>
       </c>
-      <c r="E352" s="142"/>
+      <c r="E352" s="141"/>
       <c r="F352" s="69" t="b">
         <v>1</v>
       </c>
@@ -11693,7 +11697,7 @@
       <c r="D353" s="116">
         <v>12377</v>
       </c>
-      <c r="E353" s="142"/>
+      <c r="E353" s="141"/>
       <c r="F353" s="69" t="b">
         <v>1</v>
       </c>
@@ -11714,7 +11718,7 @@
       <c r="D354" s="116">
         <v>12378</v>
       </c>
-      <c r="E354" s="142"/>
+      <c r="E354" s="141"/>
       <c r="F354" s="69" t="b">
         <v>1</v>
       </c>
@@ -11735,7 +11739,7 @@
       <c r="D355" s="116">
         <v>12379</v>
       </c>
-      <c r="E355" s="142"/>
+      <c r="E355" s="141"/>
       <c r="F355" s="69" t="b">
         <v>1</v>
       </c>
@@ -11993,7 +11997,7 @@
       <c r="D370" s="100">
         <v>10117</v>
       </c>
-      <c r="E370" s="139"/>
+      <c r="E370" s="138"/>
       <c r="F370" s="69" t="b">
         <v>0</v>
       </c>
@@ -12071,7 +12075,7 @@
       <c r="D374" s="116">
         <v>12380</v>
       </c>
-      <c r="E374" s="142"/>
+      <c r="E374" s="141"/>
       <c r="F374" s="69" t="b">
         <v>0</v>
       </c>
@@ -12092,7 +12096,7 @@
       <c r="D375" s="99">
         <v>12381</v>
       </c>
-      <c r="E375" s="144"/>
+      <c r="E375" s="143"/>
       <c r="F375" s="69" t="b">
         <v>0</v>
       </c>
@@ -12536,7 +12540,7 @@
       <c r="D400" s="116">
         <v>12382</v>
       </c>
-      <c r="E400" s="142"/>
+      <c r="E400" s="141"/>
       <c r="F400" s="69" t="b">
         <v>0</v>
       </c>
@@ -12557,7 +12561,7 @@
       <c r="D401" s="116">
         <v>12383</v>
       </c>
-      <c r="E401" s="142"/>
+      <c r="E401" s="141"/>
       <c r="F401" s="69" t="b">
         <v>0</v>
       </c>
@@ -12578,7 +12582,7 @@
       <c r="D402" s="116">
         <v>12384</v>
       </c>
-      <c r="E402" s="142"/>
+      <c r="E402" s="141"/>
       <c r="F402" s="69" t="b">
         <v>1</v>
       </c>
@@ -12599,7 +12603,7 @@
       <c r="D403" s="116">
         <v>12325</v>
       </c>
-      <c r="E403" s="142"/>
+      <c r="E403" s="141"/>
       <c r="F403" s="69" t="b">
         <v>0</v>
       </c>
@@ -12812,7 +12816,7 @@
       <c r="D416" s="99">
         <v>12385</v>
       </c>
-      <c r="E416" s="144"/>
+      <c r="E416" s="143"/>
       <c r="F416" s="69" t="b">
         <v>0</v>
       </c>
@@ -13173,7 +13177,7 @@
       <c r="D437" s="100">
         <v>10126</v>
       </c>
-      <c r="E437" s="139"/>
+      <c r="E437" s="138"/>
       <c r="F437" s="69" t="b">
         <v>0</v>
       </c>
@@ -13350,7 +13354,7 @@
       <c r="D446" s="116">
         <v>12386</v>
       </c>
-      <c r="E446" s="142"/>
+      <c r="E446" s="141"/>
       <c r="F446" s="69" t="b">
         <v>1</v>
       </c>
@@ -13371,7 +13375,7 @@
       <c r="D447" s="116">
         <v>12387</v>
       </c>
-      <c r="E447" s="142"/>
+      <c r="E447" s="141"/>
       <c r="F447" s="69" t="b">
         <v>1</v>
       </c>
@@ -13668,7 +13672,7 @@
       <c r="D464" s="116">
         <v>12388</v>
       </c>
-      <c r="E464" s="142"/>
+      <c r="E464" s="141"/>
       <c r="F464" s="69" t="b">
         <v>1</v>
       </c>
@@ -13689,7 +13693,7 @@
       <c r="D465" s="116">
         <v>12389</v>
       </c>
-      <c r="E465" s="142"/>
+      <c r="E465" s="141"/>
       <c r="F465" s="69" t="b">
         <v>0</v>
       </c>
@@ -13710,7 +13714,7 @@
       <c r="D466" s="116">
         <v>12390</v>
       </c>
-      <c r="E466" s="142"/>
+      <c r="E466" s="141"/>
       <c r="F466" s="69" t="b">
         <v>0</v>
       </c>
@@ -13731,7 +13735,7 @@
       <c r="D467" s="116">
         <v>12391</v>
       </c>
-      <c r="E467" s="142"/>
+      <c r="E467" s="141"/>
       <c r="F467" s="69" t="b">
         <v>0</v>
       </c>
@@ -13752,7 +13756,7 @@
       <c r="D468" s="116">
         <v>12392</v>
       </c>
-      <c r="E468" s="142"/>
+      <c r="E468" s="141"/>
       <c r="F468" s="69" t="b">
         <v>0</v>
       </c>
@@ -13773,7 +13777,7 @@
       <c r="D469" s="116">
         <v>12393</v>
       </c>
-      <c r="E469" s="142"/>
+      <c r="E469" s="141"/>
       <c r="F469" s="69" t="b">
         <v>0</v>
       </c>
@@ -13794,7 +13798,7 @@
       <c r="D470" s="99">
         <v>12394</v>
       </c>
-      <c r="E470" s="144"/>
+      <c r="E470" s="143"/>
       <c r="F470" s="69" t="b">
         <v>0</v>
       </c>
@@ -13815,7 +13819,7 @@
       <c r="D471" s="116">
         <v>12395</v>
       </c>
-      <c r="E471" s="142"/>
+      <c r="E471" s="141"/>
       <c r="F471" s="69" t="b">
         <v>0</v>
       </c>
@@ -13836,7 +13840,7 @@
       <c r="D472" s="116">
         <v>12396</v>
       </c>
-      <c r="E472" s="142"/>
+      <c r="E472" s="141"/>
       <c r="F472" s="69" t="b">
         <v>1</v>
       </c>
@@ -13857,7 +13861,7 @@
       <c r="D473" s="116">
         <v>12397</v>
       </c>
-      <c r="E473" s="142"/>
+      <c r="E473" s="141"/>
       <c r="F473" s="69" t="b">
         <v>0</v>
       </c>
@@ -14125,7 +14129,7 @@
       <c r="D490" s="116">
         <v>12398</v>
       </c>
-      <c r="E490" s="142"/>
+      <c r="E490" s="141"/>
       <c r="F490" s="69" t="b">
         <v>0</v>
       </c>
@@ -14911,7 +14915,7 @@
       <c r="D533" s="116">
         <v>12399</v>
       </c>
-      <c r="E533" s="142"/>
+      <c r="E533" s="141"/>
       <c r="F533" s="69" t="b">
         <v>1</v>
       </c>
@@ -14932,7 +14936,7 @@
       <c r="D534" s="116">
         <v>12000</v>
       </c>
-      <c r="E534" s="142"/>
+      <c r="E534" s="141"/>
       <c r="F534" s="69" t="b">
         <v>0</v>
       </c>
@@ -14953,7 +14957,7 @@
       <c r="D535" s="116">
         <v>12001</v>
       </c>
-      <c r="E535" s="142"/>
+      <c r="E535" s="141"/>
       <c r="F535" s="69" t="b">
         <v>0</v>
       </c>
@@ -14974,7 +14978,7 @@
       <c r="D536" s="116">
         <v>12002</v>
       </c>
-      <c r="E536" s="142"/>
+      <c r="E536" s="141"/>
       <c r="F536" s="69" t="b">
         <v>1</v>
       </c>
@@ -14995,7 +14999,7 @@
       <c r="D537" s="116">
         <v>12003</v>
       </c>
-      <c r="E537" s="142"/>
+      <c r="E537" s="141"/>
       <c r="F537" s="69" t="b">
         <v>1</v>
       </c>
@@ -15016,7 +15020,7 @@
       <c r="D538" s="116">
         <v>12004</v>
       </c>
-      <c r="E538" s="142"/>
+      <c r="E538" s="141"/>
       <c r="F538" s="69" t="b">
         <v>0</v>
       </c>
@@ -15037,7 +15041,7 @@
       <c r="D539" s="116">
         <v>12005</v>
       </c>
-      <c r="E539" s="142"/>
+      <c r="E539" s="141"/>
       <c r="F539" s="69" t="b">
         <v>0</v>
       </c>
@@ -15373,7 +15377,7 @@
       <c r="D559" s="125">
         <v>12007</v>
       </c>
-      <c r="E559" s="146"/>
+      <c r="E559" s="145"/>
       <c r="F559" s="69" t="b">
         <v>0</v>
       </c>
@@ -15394,7 +15398,7 @@
       <c r="D560" s="125">
         <v>12008</v>
       </c>
-      <c r="E560" s="146"/>
+      <c r="E560" s="145"/>
       <c r="F560" s="69" t="b">
         <v>0</v>
       </c>
@@ -22088,8 +22092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB262EB-1364-459B-9218-C412C7918AB0}">
   <dimension ref="A1:U389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="K250" sqref="K250"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27567,7 +27571,7 @@
       </c>
       <c r="U94" s="9">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27625,7 +27629,7 @@
       </c>
       <c r="U95" s="9">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28843,7 +28847,7 @@
       </c>
       <c r="U116" s="9">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29017,7 +29021,7 @@
       </c>
       <c r="U119" s="9">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29307,7 +29311,7 @@
       </c>
       <c r="U124" s="9">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29714,7 +29718,7 @@
       </c>
       <c r="U131" s="9">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29946,7 +29950,7 @@
       </c>
       <c r="U135" s="9">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30004,7 +30008,7 @@
       </c>
       <c r="U136" s="9">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:21" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30410,7 +30414,7 @@
       </c>
       <c r="U143" s="9">
         <f t="shared" si="8"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30502,12 +30506,12 @@
         <f>IFERROR(VALUE(VLOOKUP(H145, PTS!$A$2:$B$63, 2, FALSE)), "")</f>
         <v>27</v>
       </c>
-      <c r="J145" s="133">
-        <v>20</v>
+      <c r="J145" s="146" t="s">
+        <v>495</v>
       </c>
       <c r="K145" s="8">
         <f>IFERROR(VALUE(VLOOKUP(J145, PTS!$A$2:$B$63, 2, FALSE)), "")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
@@ -30517,16 +30521,16 @@
       <c r="Q145" s="20"/>
       <c r="R145" s="9">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="S145" s="9"/>
       <c r="T145" s="9" cm="1">
         <f t="array" ref="T145">SUM(LARGE(CHOOSE({1,2,3,4,5,6}, G145, I145, K145, M145, O145, Q145), _xlfn.SEQUENCE(MIN(5, COUNTA(G145, I145, K145, M145, O145, Q145)))))</f>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="U145" s="9">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30758,7 +30762,7 @@
       </c>
       <c r="U149" s="9">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:21" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33112,7 +33116,7 @@
         <f>IFERROR(VALUE(VLOOKUP(H190, PTS!$A$2:$B$63, 2, FALSE)), "")</f>
         <v>45</v>
       </c>
-      <c r="J190" s="134">
+      <c r="J190" s="133">
         <v>32</v>
       </c>
       <c r="K190" s="8">
@@ -48991,7 +48995,7 @@
   )),
   ""
 )</f>
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F37" s="129" t="str" cm="1">
         <f t="array" ref="F37">IF(
@@ -49049,7 +49053,7 @@
       </c>
       <c r="I37" s="129">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
